--- a/20 June 2022 ASDE Training - TOC-updated_10072022.xlsx
+++ b/20 June 2022 ASDE Training - TOC-updated_10072022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Local disk\sapient\10072022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C0560A-20E5-45D3-98BA-0EDCBD812054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4809BC61-CDE9-4570-A431-F6DB3186B348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3689,270 +3689,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Introduction to React and Components
-•	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Futura Next Book"/>
-      </rPr>
-      <t>Introducing React
-•	What Is React?
-•	Setting up a React Development Environment
-•	Advantages and Disadvantages
-•	Architecture
-•	React vs. Angular
-•	What Is a Component?
-•	Defining a Component
-•	Rendering a Component
-•	Props
-•	Class Components
-•	Component Lifecycle
-•	State
-•	Prop Validation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Futura Next Book"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-•	Fragments
-  Introduction to JSX and Component inter communication
-•	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Futura Next Book"/>
-      </rPr>
-      <t>What Is JSX?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Futura Next Book"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-•	Not Using JSX
-•	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Futura Next Book"/>
-      </rPr>
-      <t>Props in JSX</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Futura Next Book"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-•	pread Attributes
-•	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Futura Next Book"/>
-      </rPr>
-      <t>Events</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Futura Next Book"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-•	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Futura Next Book"/>
-      </rPr>
-      <t>React Data Flow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Futura Next Book"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-•	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Futura Next Book"/>
-      </rPr>
-      <t>JSX and HTML</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Futura Next Book"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-•	Unescaping Content
-•	Child Expressions and Elements
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">•	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Futura Next Book"/>
-      </rPr>
-      <t>Events</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Futura Next Book"/>
-      </rPr>
-      <t xml:space="preserve">
-•	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Futura Next Book"/>
-      </rPr>
-      <t>DOM Events &amp; preventDefault</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Futura Next Book"/>
-      </rPr>
-      <t xml:space="preserve">
-•	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Futura Next Book"/>
-      </rPr>
-      <t xml:space="preserve">Component Events
-•	Forms
-•	Introduction
-•	Form Elements
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Futura Next Book"/>
-      </rPr>
-      <t xml:space="preserve">•	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Futura Next Book"/>
-      </rPr>
-      <t>Allowing User Input</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Futura Next Book"/>
-      </rPr>
-      <t xml:space="preserve">
-•	Form Libraries
-•	Form Validation
-•	Client-side Routing with HTML5 pushState
-•	Adding Routes 
-•	Refs &amp; Ref props
-State Handling
-•	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Futura Next Book"/>
-      </rPr>
-      <t>State &amp; set state</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Futura Next Book"/>
-      </rPr>
-      <t xml:space="preserve">
-•	Model-view-intent Architecture
-•	A State Container
-•	http methods
-Connecting React to REST services
-•	Making Ajax calls from React
-•	Mapping CRUD access to REST actions
-•	GET
-•	POST
-•	PUT
-•	DELETE                                                                                          Unit Testing using  Zest and Enzyme</t>
-    </r>
-  </si>
-  <si>
-    <t>Redux Introduction
-In this module, the delegates will be exposed to Redux framework.
-•	Introduction
-•	Motivation
-•	Core Concepts
-•	Three Principles
-•	Legacy of Redux
-•	Redux Setup
-•	First example on Redux
-Redux Basics
-The module explains Action, Reducers and Store.
-•	Action
-•	Action Creators
-•	State Shape
-•	Handling Actions
-•	Handling more actions
-•	Splitting Reducers
-•	Store
-The module introduces delegates to Middleware and React Router.
-•	Middleware
-•	Middleware Applicability
-•	React Router Overview
-•	React Router Configuration
-•	React Router with Redux
-•	Navigate with React Router</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Introduction to TypeScript
+      <t>1. Introduction to TypeScript
 • History and Importance of JavaScript
 • JavaScript Strengths, Weaknesses
 • Limitations of JavaScript
@@ -3972,15 +3709,7 @@
 • Inheritance
 • Mixins
 • Abstract Classes
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Futura Next Book"/>
-      </rPr>
-      <t xml:space="preserve">Constants
+Constants
 Let
 New Array Methods
 Loops and Iterators
@@ -3988,15 +3717,224 @@
 Classes
 Defining Classes
 Methods
-Static Methods
-Get and Set
-Inheritance
-Modules
+Static Methods</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Futura Next Book"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Futura Next Book"/>
+      </rPr>
+      <t>Get and Set</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Futura Next Book"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Futura Next Book"/>
+      </rPr>
+      <t>Inheritance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Futura Next Book"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Futura Next Book"/>
+      </rPr>
+      <t>Modules
 Defining Modules
 Exports
 Module Loaders
 Advanced Features
-Arrow Functions
+Arrow Functions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Futura Next Book"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>•	Events
+•	DOM Events &amp; preventDefault
+•	Component Events
+•	Forms
+•	Introduction
+•	Form Elements
+•	Allowing User Input
+•	Form Libraries
+•	Form Validation
+•	Client-side Routing with HTML5 pushState
+•	Adding Routes 
+•	Refs &amp; Ref props
+State Handling
+•	State &amp; set state
+•	Model-view-intent Architecture
+•	A State Container
+•	http methods
+Connecting React to REST services
+•	Making Ajax calls from React
+•	Mapping CRUD access to REST actions
+•	GET
+•	POST
+•	PUT
+•	DELETE                                                                                          Unit Testing using  Zest and Enzyme</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Futura Next Book"/>
+      </rPr>
+      <t>Redux Introduction
+In this module, the delegates will be exposed to Redux framework.
+•	Introduction
+•	Motivation
+•	Core Concepts
+•	Three Principles
+•	Legacy of Redux
+•	Redux Setup
+•	First example on Redux
+Redux Basics
+The module explains Action, Reducers and Store.
+•	Action
+•	Action Creators
+•	State Shape
+•	Handling Actions
+•	Handling more actions
+•	Splitting Reducers
+•	Store</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Futura Next Book"/>
+      </rPr>
+      <t xml:space="preserve">
+The module introduces delegates to Middleware and React Router.
+•	Middleware
+•	Middleware Applicability
+•	React Router Overview
+•	React Router Configuration
+•	React Router with Redux
+•	Navigate with React Router</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Futura Next Book"/>
+      </rPr>
+      <t xml:space="preserve">Introduction to React and Components
+•	Introducing React
+•	What Is React?
+•	Setting up a React Development Environment
+•	Advantages and Disadvantages
+•	Architecture
+•	React vs. Angular
+•	What Is a Component?
+•	Defining a Component
+•	Rendering a Component
+•	Props
+•	Class Components
+•	Component Lifecycle
+•	State
+•	Prop Validation
+•	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Futura Next Book"/>
+      </rPr>
+      <t>Fragments</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Futura Next Book"/>
+      </rPr>
+      <t xml:space="preserve">
+  Introduction to JSX and Component inter communication
+•	What Is JSX?
+•	Not Using JSX
+•	Props in JSX
+•	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Futura Next Book"/>
+      </rPr>
+      <t>pread Attributes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Futura Next Book"/>
+      </rPr>
+      <t xml:space="preserve">
+•	Events
+•	React Data Flow
+•	JSX and HTML
+•	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Futura Next Book"/>
+      </rPr>
+      <t>Unescaping Content</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Futura Next Book"/>
+      </rPr>
+      <t xml:space="preserve">
+•	Child Expressions and Elements</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Futura Next Book"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
   </si>
@@ -4121,7 +4059,7 @@
       <name val="Futura Next Book"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4143,12 +4081,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4382,20 +4314,17 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4410,6 +4339,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4419,7 +4351,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4885,8 +4817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G882"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A844" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G545" sqref="G545"/>
+    <sheetView tabSelected="1" topLeftCell="A545" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E547" sqref="E547"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" outlineLevelRow="1"/>
@@ -5750,7 +5682,7 @@
       <c r="A75" s="29"/>
       <c r="B75" s="29"/>
       <c r="C75" s="29"/>
-      <c r="D75" s="49" t="s">
+      <c r="D75" s="48" t="s">
         <v>75</v>
       </c>
       <c r="E75" s="12"/>
@@ -5761,7 +5693,7 @@
       <c r="A76" s="29"/>
       <c r="B76" s="29"/>
       <c r="C76" s="29"/>
-      <c r="D76" s="49" t="s">
+      <c r="D76" s="48" t="s">
         <v>76</v>
       </c>
       <c r="E76" s="12"/>
@@ -5772,7 +5704,7 @@
       <c r="A77" s="29"/>
       <c r="B77" s="29"/>
       <c r="C77" s="29"/>
-      <c r="D77" s="49" t="s">
+      <c r="D77" s="48" t="s">
         <v>77</v>
       </c>
       <c r="E77" s="12"/>
@@ -5783,7 +5715,7 @@
       <c r="A78" s="29"/>
       <c r="B78" s="29"/>
       <c r="C78" s="29"/>
-      <c r="D78" s="49" t="s">
+      <c r="D78" s="48" t="s">
         <v>78</v>
       </c>
       <c r="E78" s="12"/>
@@ -5794,7 +5726,7 @@
       <c r="A79" s="29"/>
       <c r="B79" s="29"/>
       <c r="C79" s="29"/>
-      <c r="D79" s="49" t="s">
+      <c r="D79" s="48" t="s">
         <v>79</v>
       </c>
       <c r="E79" s="12"/>
@@ -5805,7 +5737,7 @@
       <c r="A80" s="29"/>
       <c r="B80" s="29"/>
       <c r="C80" s="29"/>
-      <c r="D80" s="49" t="s">
+      <c r="D80" s="48" t="s">
         <v>80</v>
       </c>
       <c r="E80" s="12"/>
@@ -5816,7 +5748,7 @@
       <c r="A81" s="29"/>
       <c r="B81" s="29"/>
       <c r="C81" s="29"/>
-      <c r="D81" s="49" t="s">
+      <c r="D81" s="48" t="s">
         <v>81</v>
       </c>
       <c r="E81" s="12"/>
@@ -5827,7 +5759,7 @@
       <c r="A82" s="29"/>
       <c r="B82" s="29"/>
       <c r="C82" s="27"/>
-      <c r="D82" s="49" t="s">
+      <c r="D82" s="48" t="s">
         <v>82</v>
       </c>
       <c r="E82" s="12"/>
@@ -5842,7 +5774,7 @@
       <c r="C83" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="D83" s="50" t="s">
+      <c r="D83" s="49" t="s">
         <v>844</v>
       </c>
       <c r="E83" s="12"/>
@@ -5854,10 +5786,10 @@
     <row r="84" spans="1:7" ht="27.6" outlineLevel="1">
       <c r="A84" s="29"/>
       <c r="B84" s="29"/>
-      <c r="C84" s="51" t="s">
+      <c r="C84" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="D84" s="50" t="s">
+      <c r="D84" s="49" t="s">
         <v>129</v>
       </c>
       <c r="E84" s="12"/>
@@ -5872,7 +5804,7 @@
       <c r="C85" s="28" t="s">
         <v>835</v>
       </c>
-      <c r="D85" s="50" t="s">
+      <c r="D85" s="49" t="s">
         <v>836</v>
       </c>
       <c r="E85" s="12"/>
@@ -5913,7 +5845,7 @@
       <c r="A88" s="29"/>
       <c r="B88" s="29"/>
       <c r="C88" s="27"/>
-      <c r="D88" s="47" t="s">
+      <c r="D88" s="46" t="s">
         <v>84</v>
       </c>
       <c r="E88" s="12"/>
@@ -5924,7 +5856,7 @@
       <c r="A89" s="29"/>
       <c r="B89" s="29"/>
       <c r="C89" s="20"/>
-      <c r="D89" s="48" t="s">
+      <c r="D89" s="47" t="s">
         <v>85</v>
       </c>
       <c r="E89" s="12"/>
@@ -5935,7 +5867,7 @@
       <c r="A90" s="29"/>
       <c r="B90" s="29"/>
       <c r="C90" s="26"/>
-      <c r="D90" s="48" t="s">
+      <c r="D90" s="47" t="s">
         <v>86</v>
       </c>
       <c r="E90" s="12"/>
@@ -5946,7 +5878,7 @@
       <c r="A91" s="29"/>
       <c r="B91" s="29"/>
       <c r="C91" s="26"/>
-      <c r="D91" s="48" t="s">
+      <c r="D91" s="47" t="s">
         <v>87</v>
       </c>
       <c r="E91" s="12"/>
@@ -5957,7 +5889,7 @@
       <c r="A92" s="29"/>
       <c r="B92" s="29"/>
       <c r="C92" s="26"/>
-      <c r="D92" s="48" t="s">
+      <c r="D92" s="47" t="s">
         <v>88</v>
       </c>
       <c r="E92" s="12"/>
@@ -5968,7 +5900,7 @@
       <c r="A93" s="29"/>
       <c r="B93" s="29"/>
       <c r="C93" s="26"/>
-      <c r="D93" s="47" t="s">
+      <c r="D93" s="46" t="s">
         <v>89</v>
       </c>
       <c r="E93" s="12"/>
@@ -5979,7 +5911,7 @@
       <c r="A94" s="29"/>
       <c r="B94" s="29"/>
       <c r="C94" s="26"/>
-      <c r="D94" s="48" t="s">
+      <c r="D94" s="47" t="s">
         <v>90</v>
       </c>
       <c r="E94" s="12"/>
@@ -5990,7 +5922,7 @@
       <c r="A95" s="29"/>
       <c r="B95" s="29"/>
       <c r="C95" s="26"/>
-      <c r="D95" s="48" t="s">
+      <c r="D95" s="47" t="s">
         <v>91</v>
       </c>
       <c r="E95" s="12"/>
@@ -6001,7 +5933,7 @@
       <c r="A96" s="29"/>
       <c r="B96" s="29"/>
       <c r="C96" s="26"/>
-      <c r="D96" s="48" t="s">
+      <c r="D96" s="47" t="s">
         <v>92</v>
       </c>
       <c r="E96" s="12"/>
@@ -6012,7 +5944,7 @@
       <c r="A97" s="29"/>
       <c r="B97" s="29"/>
       <c r="C97" s="26"/>
-      <c r="D97" s="48" t="s">
+      <c r="D97" s="47" t="s">
         <v>93</v>
       </c>
       <c r="E97" s="12"/>
@@ -6023,7 +5955,7 @@
       <c r="A98" s="29"/>
       <c r="B98" s="29"/>
       <c r="C98" s="26"/>
-      <c r="D98" s="48" t="s">
+      <c r="D98" s="47" t="s">
         <v>94</v>
       </c>
       <c r="E98" s="12"/>
@@ -6034,7 +5966,7 @@
       <c r="A99" s="29"/>
       <c r="B99" s="29"/>
       <c r="C99" s="26"/>
-      <c r="D99" s="48" t="s">
+      <c r="D99" s="47" t="s">
         <v>95</v>
       </c>
       <c r="E99" s="12"/>
@@ -6045,7 +5977,7 @@
       <c r="A100" s="29"/>
       <c r="B100" s="29"/>
       <c r="C100" s="26"/>
-      <c r="D100" s="48" t="s">
+      <c r="D100" s="47" t="s">
         <v>96</v>
       </c>
       <c r="E100" s="12"/>
@@ -6056,7 +5988,7 @@
       <c r="A101" s="29"/>
       <c r="B101" s="29"/>
       <c r="C101" s="26"/>
-      <c r="D101" s="48" t="s">
+      <c r="D101" s="47" t="s">
         <v>97</v>
       </c>
       <c r="E101" s="12"/>
@@ -6067,7 +5999,7 @@
       <c r="A102" s="29"/>
       <c r="B102" s="29"/>
       <c r="C102" s="26"/>
-      <c r="D102" s="48" t="s">
+      <c r="D102" s="47" t="s">
         <v>98</v>
       </c>
       <c r="E102" s="12"/>
@@ -6078,7 +6010,7 @@
       <c r="A103" s="29"/>
       <c r="B103" s="29"/>
       <c r="C103" s="26"/>
-      <c r="D103" s="48" t="s">
+      <c r="D103" s="47" t="s">
         <v>846</v>
       </c>
       <c r="E103" s="12"/>
@@ -6089,7 +6021,7 @@
       <c r="A104" s="29"/>
       <c r="B104" s="29"/>
       <c r="C104" s="26"/>
-      <c r="D104" s="48" t="s">
+      <c r="D104" s="47" t="s">
         <v>99</v>
       </c>
       <c r="E104" s="12"/>
@@ -6102,7 +6034,7 @@
       <c r="C105" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="D105" s="47" t="s">
+      <c r="D105" s="46" t="s">
         <v>181</v>
       </c>
       <c r="E105" s="12"/>
@@ -6115,7 +6047,7 @@
       <c r="A106" s="29"/>
       <c r="B106" s="29"/>
       <c r="C106" s="26"/>
-      <c r="D106" s="48" t="s">
+      <c r="D106" s="47" t="s">
         <v>182</v>
       </c>
       <c r="E106" s="12"/>
@@ -6126,7 +6058,7 @@
       <c r="A107" s="29"/>
       <c r="B107" s="29"/>
       <c r="C107" s="26"/>
-      <c r="D107" s="48" t="s">
+      <c r="D107" s="47" t="s">
         <v>183</v>
       </c>
       <c r="E107" s="12"/>
@@ -6137,7 +6069,7 @@
       <c r="A108" s="29"/>
       <c r="B108" s="29"/>
       <c r="C108" s="26"/>
-      <c r="D108" s="48" t="s">
+      <c r="D108" s="47" t="s">
         <v>184</v>
       </c>
       <c r="E108" s="12"/>
@@ -6148,7 +6080,7 @@
       <c r="A109" s="29"/>
       <c r="B109" s="29"/>
       <c r="C109" s="26"/>
-      <c r="D109" s="48" t="s">
+      <c r="D109" s="47" t="s">
         <v>185</v>
       </c>
       <c r="E109" s="12"/>
@@ -6159,7 +6091,7 @@
       <c r="A110" s="29"/>
       <c r="B110" s="29"/>
       <c r="C110" s="26"/>
-      <c r="D110" s="48" t="s">
+      <c r="D110" s="47" t="s">
         <v>186</v>
       </c>
       <c r="E110" s="12"/>
@@ -6170,7 +6102,7 @@
       <c r="A111" s="29"/>
       <c r="B111" s="29"/>
       <c r="C111" s="26"/>
-      <c r="D111" s="47" t="s">
+      <c r="D111" s="46" t="s">
         <v>187</v>
       </c>
       <c r="E111" s="11"/>
@@ -6181,7 +6113,7 @@
       <c r="A112" s="29"/>
       <c r="B112" s="29"/>
       <c r="C112" s="26"/>
-      <c r="D112" s="48" t="s">
+      <c r="D112" s="47" t="s">
         <v>188</v>
       </c>
       <c r="E112" s="12"/>
@@ -6192,7 +6124,7 @@
       <c r="A113" s="29"/>
       <c r="B113" s="29"/>
       <c r="C113" s="26"/>
-      <c r="D113" s="48" t="s">
+      <c r="D113" s="47" t="s">
         <v>189</v>
       </c>
       <c r="E113" s="12"/>
@@ -6203,7 +6135,7 @@
       <c r="A114" s="29"/>
       <c r="B114" s="29"/>
       <c r="C114" s="26"/>
-      <c r="D114" s="48" t="s">
+      <c r="D114" s="47" t="s">
         <v>847</v>
       </c>
       <c r="E114" s="12"/>
@@ -6214,7 +6146,7 @@
       <c r="A115" s="29"/>
       <c r="B115" s="29"/>
       <c r="C115" s="26"/>
-      <c r="D115" s="48" t="s">
+      <c r="D115" s="47" t="s">
         <v>190</v>
       </c>
       <c r="E115" s="12"/>
@@ -6225,7 +6157,7 @@
       <c r="A116" s="29"/>
       <c r="B116" s="29"/>
       <c r="C116" s="26"/>
-      <c r="D116" s="47" t="s">
+      <c r="D116" s="46" t="s">
         <v>191</v>
       </c>
       <c r="E116" s="12"/>
@@ -6236,7 +6168,7 @@
       <c r="A117" s="29"/>
       <c r="B117" s="29"/>
       <c r="C117" s="26"/>
-      <c r="D117" s="48" t="s">
+      <c r="D117" s="47" t="s">
         <v>192</v>
       </c>
       <c r="E117" s="12"/>
@@ -6247,7 +6179,7 @@
       <c r="A118" s="29"/>
       <c r="B118" s="29"/>
       <c r="C118" s="26"/>
-      <c r="D118" s="47" t="s">
+      <c r="D118" s="46" t="s">
         <v>193</v>
       </c>
       <c r="E118" s="12"/>
@@ -6258,7 +6190,7 @@
       <c r="A119" s="29"/>
       <c r="B119" s="29"/>
       <c r="C119" s="26"/>
-      <c r="D119" s="48" t="s">
+      <c r="D119" s="47" t="s">
         <v>192</v>
       </c>
       <c r="E119" s="12"/>
@@ -7041,7 +6973,7 @@
       <c r="A192" s="29"/>
       <c r="B192" s="29"/>
       <c r="C192" s="20"/>
-      <c r="D192" s="52" t="s">
+      <c r="D192" s="51" t="s">
         <v>213</v>
       </c>
       <c r="E192" s="14"/>
@@ -7052,7 +6984,7 @@
       <c r="A193" s="29"/>
       <c r="B193" s="29"/>
       <c r="C193" s="26"/>
-      <c r="D193" s="53" t="s">
+      <c r="D193" s="52" t="s">
         <v>159</v>
       </c>
       <c r="E193" s="13"/>
@@ -7063,7 +6995,7 @@
       <c r="A194" s="29"/>
       <c r="B194" s="29"/>
       <c r="C194" s="26"/>
-      <c r="D194" s="53" t="s">
+      <c r="D194" s="52" t="s">
         <v>160</v>
       </c>
       <c r="E194" s="13"/>
@@ -7074,7 +7006,7 @@
       <c r="A195" s="29"/>
       <c r="B195" s="29"/>
       <c r="C195" s="26"/>
-      <c r="D195" s="53" t="s">
+      <c r="D195" s="52" t="s">
         <v>161</v>
       </c>
       <c r="E195" s="13"/>
@@ -7085,7 +7017,7 @@
       <c r="A196" s="29"/>
       <c r="B196" s="29"/>
       <c r="C196" s="26"/>
-      <c r="D196" s="53" t="s">
+      <c r="D196" s="52" t="s">
         <v>162</v>
       </c>
       <c r="E196" s="13"/>
@@ -7096,7 +7028,7 @@
       <c r="A197" s="29"/>
       <c r="B197" s="29"/>
       <c r="C197" s="26"/>
-      <c r="D197" s="53" t="s">
+      <c r="D197" s="52" t="s">
         <v>163</v>
       </c>
       <c r="E197" s="13"/>
@@ -7107,7 +7039,7 @@
       <c r="A198" s="29"/>
       <c r="B198" s="29"/>
       <c r="C198" s="26"/>
-      <c r="D198" s="53" t="s">
+      <c r="D198" s="52" t="s">
         <v>164</v>
       </c>
       <c r="E198" s="13"/>
@@ -7118,7 +7050,7 @@
       <c r="A199" s="29"/>
       <c r="B199" s="29"/>
       <c r="C199" s="26"/>
-      <c r="D199" s="53" t="s">
+      <c r="D199" s="52" t="s">
         <v>165</v>
       </c>
       <c r="E199" s="13"/>
@@ -7129,7 +7061,7 @@
       <c r="A200" s="29"/>
       <c r="B200" s="29"/>
       <c r="C200" s="26"/>
-      <c r="D200" s="53" t="s">
+      <c r="D200" s="52" t="s">
         <v>166</v>
       </c>
       <c r="E200" s="13"/>
@@ -7140,7 +7072,7 @@
       <c r="A201" s="29"/>
       <c r="B201" s="29"/>
       <c r="C201" s="26"/>
-      <c r="D201" s="53" t="s">
+      <c r="D201" s="52" t="s">
         <v>167</v>
       </c>
       <c r="E201" s="13"/>
@@ -7151,7 +7083,7 @@
       <c r="A202" s="29"/>
       <c r="B202" s="29"/>
       <c r="C202" s="26"/>
-      <c r="D202" s="53" t="s">
+      <c r="D202" s="52" t="s">
         <v>168</v>
       </c>
       <c r="E202" s="13"/>
@@ -7162,7 +7094,7 @@
       <c r="A203" s="29"/>
       <c r="B203" s="29"/>
       <c r="C203" s="26"/>
-      <c r="D203" s="53" t="s">
+      <c r="D203" s="52" t="s">
         <v>169</v>
       </c>
       <c r="E203" s="13"/>
@@ -7173,7 +7105,7 @@
       <c r="A204" s="29"/>
       <c r="B204" s="29"/>
       <c r="C204" s="26"/>
-      <c r="D204" s="53" t="s">
+      <c r="D204" s="52" t="s">
         <v>170</v>
       </c>
       <c r="E204" s="13"/>
@@ -7184,7 +7116,7 @@
       <c r="A205" s="29"/>
       <c r="B205" s="29"/>
       <c r="C205" s="26"/>
-      <c r="D205" s="53" t="s">
+      <c r="D205" s="52" t="s">
         <v>171</v>
       </c>
       <c r="E205" s="13"/>
@@ -7195,7 +7127,7 @@
       <c r="A206" s="29"/>
       <c r="B206" s="29"/>
       <c r="C206" s="26"/>
-      <c r="D206" s="53" t="s">
+      <c r="D206" s="52" t="s">
         <v>172</v>
       </c>
       <c r="E206" s="13"/>
@@ -7206,7 +7138,7 @@
       <c r="A207" s="29"/>
       <c r="B207" s="29"/>
       <c r="C207" s="26"/>
-      <c r="D207" s="53" t="s">
+      <c r="D207" s="52" t="s">
         <v>173</v>
       </c>
       <c r="E207" s="13"/>
@@ -7217,7 +7149,7 @@
       <c r="A208" s="29"/>
       <c r="B208" s="29"/>
       <c r="C208" s="26"/>
-      <c r="D208" s="53" t="s">
+      <c r="D208" s="52" t="s">
         <v>174</v>
       </c>
       <c r="E208" s="13"/>
@@ -7228,7 +7160,7 @@
       <c r="A209" s="29"/>
       <c r="B209" s="29"/>
       <c r="C209" s="26"/>
-      <c r="D209" s="53" t="s">
+      <c r="D209" s="52" t="s">
         <v>175</v>
       </c>
       <c r="E209" s="13"/>
@@ -7239,7 +7171,7 @@
       <c r="A210" s="29"/>
       <c r="B210" s="29"/>
       <c r="C210" s="26"/>
-      <c r="D210" s="53" t="s">
+      <c r="D210" s="52" t="s">
         <v>176</v>
       </c>
       <c r="E210" s="13"/>
@@ -7250,7 +7182,7 @@
       <c r="A211" s="29"/>
       <c r="B211" s="29"/>
       <c r="C211" s="26"/>
-      <c r="D211" s="53" t="s">
+      <c r="D211" s="52" t="s">
         <v>177</v>
       </c>
       <c r="E211" s="13"/>
@@ -7261,7 +7193,7 @@
       <c r="A212" s="29"/>
       <c r="B212" s="29"/>
       <c r="C212" s="26"/>
-      <c r="D212" s="53" t="s">
+      <c r="D212" s="52" t="s">
         <v>178</v>
       </c>
       <c r="E212" s="13"/>
@@ -7283,7 +7215,7 @@
       <c r="A214" s="29"/>
       <c r="B214" s="29"/>
       <c r="C214" s="20"/>
-      <c r="D214" s="53" t="s">
+      <c r="D214" s="52" t="s">
         <v>214</v>
       </c>
       <c r="E214" s="15"/>
@@ -7294,7 +7226,7 @@
       <c r="A215" s="29"/>
       <c r="B215" s="29"/>
       <c r="C215" s="20"/>
-      <c r="D215" s="53" t="s">
+      <c r="D215" s="52" t="s">
         <v>215</v>
       </c>
       <c r="E215" s="16"/>
@@ -7305,7 +7237,7 @@
       <c r="A216" s="29"/>
       <c r="B216" s="29"/>
       <c r="C216" s="20"/>
-      <c r="D216" s="54" t="s">
+      <c r="D216" s="53" t="s">
         <v>216</v>
       </c>
       <c r="E216" s="17"/>
@@ -7316,7 +7248,7 @@
       <c r="A217" s="29"/>
       <c r="B217" s="29"/>
       <c r="C217" s="20"/>
-      <c r="D217" s="53" t="s">
+      <c r="D217" s="52" t="s">
         <v>217</v>
       </c>
       <c r="E217" s="17"/>
@@ -7327,7 +7259,7 @@
       <c r="A218" s="29"/>
       <c r="B218" s="29"/>
       <c r="C218" s="20"/>
-      <c r="D218" s="53" t="s">
+      <c r="D218" s="52" t="s">
         <v>218</v>
       </c>
       <c r="E218" s="17"/>
@@ -7338,7 +7270,7 @@
       <c r="A219" s="29"/>
       <c r="B219" s="29"/>
       <c r="C219" s="20"/>
-      <c r="D219" s="52"/>
+      <c r="D219" s="51"/>
       <c r="E219" s="17"/>
       <c r="F219" s="17"/>
       <c r="G219" s="9"/>
@@ -7347,7 +7279,7 @@
       <c r="A220" s="29"/>
       <c r="B220" s="29"/>
       <c r="C220" s="20"/>
-      <c r="D220" s="52"/>
+      <c r="D220" s="51"/>
       <c r="E220" s="17"/>
       <c r="F220" s="17"/>
       <c r="G220" s="9"/>
@@ -7356,7 +7288,7 @@
       <c r="A221" s="29"/>
       <c r="B221" s="29"/>
       <c r="C221" s="20"/>
-      <c r="D221" s="52"/>
+      <c r="D221" s="51"/>
       <c r="E221" s="17"/>
       <c r="F221" s="17"/>
       <c r="G221" s="9"/>
@@ -7365,7 +7297,7 @@
       <c r="A222" s="29"/>
       <c r="B222" s="29"/>
       <c r="C222" s="20"/>
-      <c r="D222" s="52"/>
+      <c r="D222" s="51"/>
       <c r="E222" s="17"/>
       <c r="F222" s="17"/>
       <c r="G222" s="9"/>
@@ -7374,7 +7306,7 @@
       <c r="A223" s="29"/>
       <c r="B223" s="29"/>
       <c r="C223" s="20"/>
-      <c r="D223" s="52"/>
+      <c r="D223" s="51"/>
       <c r="E223" s="17"/>
       <c r="F223" s="17"/>
       <c r="G223" s="9"/>
@@ -7383,7 +7315,7 @@
       <c r="A224" s="29"/>
       <c r="B224" s="29"/>
       <c r="C224" s="20"/>
-      <c r="D224" s="52"/>
+      <c r="D224" s="51"/>
       <c r="E224" s="17"/>
       <c r="F224" s="17"/>
       <c r="G224" s="9"/>
@@ -7392,7 +7324,7 @@
       <c r="A225" s="29"/>
       <c r="B225" s="29"/>
       <c r="C225" s="20"/>
-      <c r="D225" s="52"/>
+      <c r="D225" s="51"/>
       <c r="E225" s="12"/>
       <c r="F225" s="12"/>
       <c r="G225" s="9"/>
@@ -7401,7 +7333,7 @@
       <c r="A226" s="29"/>
       <c r="B226" s="29"/>
       <c r="C226" s="20"/>
-      <c r="D226" s="52"/>
+      <c r="D226" s="51"/>
       <c r="E226" s="17"/>
       <c r="F226" s="17"/>
       <c r="G226" s="9"/>
@@ -7410,7 +7342,7 @@
       <c r="A227" s="29"/>
       <c r="B227" s="29"/>
       <c r="C227" s="20"/>
-      <c r="D227" s="52"/>
+      <c r="D227" s="51"/>
       <c r="E227" s="17"/>
       <c r="F227" s="17"/>
       <c r="G227" s="9"/>
@@ -7419,7 +7351,7 @@
       <c r="A228" s="29"/>
       <c r="B228" s="29"/>
       <c r="C228" s="20"/>
-      <c r="D228" s="52"/>
+      <c r="D228" s="51"/>
       <c r="E228" s="17"/>
       <c r="F228" s="17"/>
       <c r="G228" s="9"/>
@@ -7428,7 +7360,7 @@
       <c r="A229" s="29"/>
       <c r="B229" s="29"/>
       <c r="C229" s="20"/>
-      <c r="D229" s="52"/>
+      <c r="D229" s="51"/>
       <c r="E229" s="17"/>
       <c r="F229" s="17"/>
       <c r="G229" s="9"/>
@@ -7437,7 +7369,7 @@
       <c r="A230" s="29"/>
       <c r="B230" s="29"/>
       <c r="C230" s="20"/>
-      <c r="D230" s="52"/>
+      <c r="D230" s="51"/>
       <c r="E230" s="17"/>
       <c r="F230" s="17"/>
       <c r="G230" s="9"/>
@@ -7446,7 +7378,7 @@
       <c r="A231" s="29"/>
       <c r="B231" s="29"/>
       <c r="C231" s="20"/>
-      <c r="D231" s="52"/>
+      <c r="D231" s="51"/>
       <c r="E231" s="17"/>
       <c r="F231" s="17"/>
       <c r="G231" s="9"/>
@@ -7455,7 +7387,7 @@
       <c r="A232" s="29"/>
       <c r="B232" s="29"/>
       <c r="C232" s="20"/>
-      <c r="D232" s="52"/>
+      <c r="D232" s="51"/>
       <c r="E232" s="17"/>
       <c r="F232" s="17"/>
       <c r="G232" s="9"/>
@@ -7464,7 +7396,7 @@
       <c r="A233" s="29"/>
       <c r="B233" s="29"/>
       <c r="C233" s="20"/>
-      <c r="D233" s="52"/>
+      <c r="D233" s="51"/>
       <c r="E233" s="17"/>
       <c r="F233" s="17"/>
       <c r="G233" s="9"/>
@@ -7473,7 +7405,7 @@
       <c r="A234" s="29"/>
       <c r="B234" s="29"/>
       <c r="C234" s="20"/>
-      <c r="D234" s="52" t="s">
+      <c r="D234" s="51" t="s">
         <v>215</v>
       </c>
       <c r="E234" s="12"/>
@@ -7484,7 +7416,7 @@
       <c r="A235" s="29"/>
       <c r="B235" s="29"/>
       <c r="C235" s="20"/>
-      <c r="D235" s="19" t="s">
+      <c r="D235" s="51" t="s">
         <v>216</v>
       </c>
       <c r="E235" s="12"/>
@@ -7495,7 +7427,7 @@
       <c r="A236" s="29"/>
       <c r="B236" s="29"/>
       <c r="C236" s="20"/>
-      <c r="D236" s="52" t="s">
+      <c r="D236" s="51" t="s">
         <v>217</v>
       </c>
       <c r="E236" s="12"/>
@@ -7506,7 +7438,7 @@
       <c r="A237" s="29"/>
       <c r="B237" s="29"/>
       <c r="C237" s="20"/>
-      <c r="D237" s="52" t="s">
+      <c r="D237" s="51" t="s">
         <v>218</v>
       </c>
       <c r="E237" s="12"/>
@@ -7517,7 +7449,7 @@
       <c r="A238" s="29"/>
       <c r="B238" s="29"/>
       <c r="C238" s="20"/>
-      <c r="D238" s="52" t="s">
+      <c r="D238" s="51" t="s">
         <v>219</v>
       </c>
       <c r="E238" s="12"/>
@@ -7528,7 +7460,7 @@
       <c r="A239" s="29"/>
       <c r="B239" s="29"/>
       <c r="C239" s="20"/>
-      <c r="D239" s="52" t="s">
+      <c r="D239" s="51" t="s">
         <v>220</v>
       </c>
       <c r="E239" s="12"/>
@@ -7539,7 +7471,7 @@
       <c r="A240" s="29"/>
       <c r="B240" s="29"/>
       <c r="C240" s="20"/>
-      <c r="D240" s="52" t="s">
+      <c r="D240" s="51" t="s">
         <v>221</v>
       </c>
       <c r="E240" s="12"/>
@@ -7550,7 +7482,7 @@
       <c r="A241" s="29"/>
       <c r="B241" s="29"/>
       <c r="C241" s="20"/>
-      <c r="D241" s="53" t="s">
+      <c r="D241" s="52" t="s">
         <v>222</v>
       </c>
       <c r="E241" s="12"/>
@@ -7561,7 +7493,7 @@
       <c r="A242" s="29"/>
       <c r="B242" s="29"/>
       <c r="C242" s="20"/>
-      <c r="D242" s="3" t="s">
+      <c r="D242" s="52" t="s">
         <v>223</v>
       </c>
       <c r="E242" s="12"/>
@@ -7572,7 +7504,7 @@
       <c r="A243" s="29"/>
       <c r="B243" s="29"/>
       <c r="C243" s="20"/>
-      <c r="D243" s="53" t="s">
+      <c r="D243" s="52" t="s">
         <v>224</v>
       </c>
       <c r="E243" s="12"/>
@@ -7583,7 +7515,7 @@
       <c r="A244" s="29"/>
       <c r="B244" s="29"/>
       <c r="C244" s="20"/>
-      <c r="D244" s="2" t="s">
+      <c r="D244" s="53" t="s">
         <v>225</v>
       </c>
       <c r="E244" s="12"/>
@@ -7594,7 +7526,7 @@
       <c r="A245" s="29"/>
       <c r="B245" s="29"/>
       <c r="C245" s="20"/>
-      <c r="D245" s="53" t="s">
+      <c r="D245" s="52" t="s">
         <v>226</v>
       </c>
       <c r="E245" s="11"/>
@@ -7931,7 +7863,7 @@
       <c r="A282" s="29"/>
       <c r="B282" s="29"/>
       <c r="C282" s="20"/>
-      <c r="D282" s="2" t="s">
+      <c r="D282" s="53" t="s">
         <v>228</v>
       </c>
       <c r="E282" s="12"/>
@@ -7942,7 +7874,7 @@
       <c r="A283" s="29"/>
       <c r="B283" s="29"/>
       <c r="C283" s="20"/>
-      <c r="D283" s="53" t="s">
+      <c r="D283" s="52" t="s">
         <v>229</v>
       </c>
       <c r="E283" s="12"/>
@@ -7953,7 +7885,7 @@
       <c r="A284" s="29"/>
       <c r="B284" s="29"/>
       <c r="C284" s="20"/>
-      <c r="D284" s="53" t="s">
+      <c r="D284" s="52" t="s">
         <v>230</v>
       </c>
       <c r="E284" s="12"/>
@@ -7964,7 +7896,7 @@
       <c r="A285" s="29"/>
       <c r="B285" s="29"/>
       <c r="C285" s="20"/>
-      <c r="D285" s="53" t="s">
+      <c r="D285" s="52" t="s">
         <v>231</v>
       </c>
       <c r="E285" s="12"/>
@@ -7975,7 +7907,7 @@
       <c r="A286" s="29"/>
       <c r="B286" s="29"/>
       <c r="C286" s="20"/>
-      <c r="D286" s="53" t="s">
+      <c r="D286" s="52" t="s">
         <v>232</v>
       </c>
       <c r="E286" s="12"/>
@@ -7986,7 +7918,7 @@
       <c r="A287" s="29"/>
       <c r="B287" s="29"/>
       <c r="C287" s="20"/>
-      <c r="D287" s="53" t="s">
+      <c r="D287" s="52" t="s">
         <v>233</v>
       </c>
       <c r="E287" s="12"/>
@@ -7997,7 +7929,7 @@
       <c r="A288" s="29"/>
       <c r="B288" s="29"/>
       <c r="C288" s="20"/>
-      <c r="D288" s="53" t="s">
+      <c r="D288" s="52" t="s">
         <v>234</v>
       </c>
       <c r="E288" s="11"/>
@@ -8052,7 +7984,7 @@
       <c r="A293" s="29"/>
       <c r="B293" s="29"/>
       <c r="C293" s="27"/>
-      <c r="D293" s="53" t="s">
+      <c r="D293" s="52" t="s">
         <v>235</v>
       </c>
       <c r="E293" s="12"/>
@@ -8063,7 +7995,7 @@
       <c r="A294" s="29"/>
       <c r="B294" s="29"/>
       <c r="C294" s="27"/>
-      <c r="D294" s="2" t="s">
+      <c r="D294" s="53" t="s">
         <v>236</v>
       </c>
       <c r="E294" s="12"/>
@@ -8074,7 +8006,7 @@
       <c r="A295" s="29"/>
       <c r="B295" s="29"/>
       <c r="C295" s="27"/>
-      <c r="D295" s="3" t="s">
+      <c r="D295" s="52" t="s">
         <v>237</v>
       </c>
       <c r="E295" s="12"/>
@@ -8085,7 +8017,7 @@
       <c r="A296" s="29"/>
       <c r="B296" s="29"/>
       <c r="C296" s="27"/>
-      <c r="D296" s="3" t="s">
+      <c r="D296" s="52" t="s">
         <v>238</v>
       </c>
       <c r="E296" s="12"/>
@@ -8096,7 +8028,7 @@
       <c r="A297" s="29"/>
       <c r="B297" s="29"/>
       <c r="C297" s="27"/>
-      <c r="D297" s="2" t="s">
+      <c r="D297" s="53" t="s">
         <v>239</v>
       </c>
       <c r="E297" s="12"/>
@@ -8107,7 +8039,7 @@
       <c r="A298" s="29"/>
       <c r="B298" s="29"/>
       <c r="C298" s="27"/>
-      <c r="D298" s="53" t="s">
+      <c r="D298" s="52" t="s">
         <v>240</v>
       </c>
       <c r="E298" s="12"/>
@@ -8120,7 +8052,7 @@
       <c r="C299" s="26" t="s">
         <v>734</v>
       </c>
-      <c r="D299" s="53" t="s">
+      <c r="D299" s="52" t="s">
         <v>241</v>
       </c>
       <c r="E299" s="15"/>
@@ -8131,7 +8063,7 @@
       <c r="A300" s="29"/>
       <c r="B300" s="29"/>
       <c r="C300" s="26"/>
-      <c r="D300" s="3" t="s">
+      <c r="D300" s="52" t="s">
         <v>242</v>
       </c>
       <c r="E300" s="13"/>
@@ -8142,7 +8074,7 @@
       <c r="A301" s="29"/>
       <c r="B301" s="29"/>
       <c r="C301" s="26"/>
-      <c r="D301" s="53" t="s">
+      <c r="D301" s="52" t="s">
         <v>243</v>
       </c>
       <c r="E301" s="13"/>
@@ -8153,7 +8085,7 @@
       <c r="A302" s="29"/>
       <c r="B302" s="29"/>
       <c r="C302" s="26"/>
-      <c r="D302" s="53" t="s">
+      <c r="D302" s="52" t="s">
         <v>244</v>
       </c>
       <c r="E302" s="13"/>
@@ -8164,7 +8096,7 @@
       <c r="A303" s="29"/>
       <c r="B303" s="29"/>
       <c r="C303" s="26"/>
-      <c r="D303" s="2" t="s">
+      <c r="D303" s="53" t="s">
         <v>245</v>
       </c>
       <c r="E303" s="15"/>
@@ -8175,7 +8107,7 @@
       <c r="A304" s="29"/>
       <c r="B304" s="29"/>
       <c r="C304" s="26"/>
-      <c r="D304" s="53" t="s">
+      <c r="D304" s="52" t="s">
         <v>246</v>
       </c>
       <c r="E304" s="13"/>
@@ -8186,7 +8118,7 @@
       <c r="A305" s="29"/>
       <c r="B305" s="29"/>
       <c r="C305" s="26"/>
-      <c r="D305" s="3" t="s">
+      <c r="D305" s="52" t="s">
         <v>247</v>
       </c>
       <c r="E305" s="13"/>
@@ -8197,7 +8129,7 @@
       <c r="A306" s="29"/>
       <c r="B306" s="29"/>
       <c r="C306" s="26"/>
-      <c r="D306" s="53" t="s">
+      <c r="D306" s="52" t="s">
         <v>248</v>
       </c>
       <c r="E306" s="13"/>
@@ -8208,7 +8140,7 @@
       <c r="A307" s="29"/>
       <c r="B307" s="29"/>
       <c r="C307" s="26"/>
-      <c r="D307" s="53" t="s">
+      <c r="D307" s="52" t="s">
         <v>249</v>
       </c>
       <c r="E307" s="13"/>
@@ -8219,7 +8151,7 @@
       <c r="A308" s="29"/>
       <c r="B308" s="29"/>
       <c r="C308" s="26"/>
-      <c r="D308" s="3" t="s">
+      <c r="D308" s="52" t="s">
         <v>250</v>
       </c>
       <c r="E308" s="15"/>
@@ -8230,7 +8162,7 @@
       <c r="A309" s="29"/>
       <c r="B309" s="29"/>
       <c r="C309" s="26"/>
-      <c r="D309" s="3" t="s">
+      <c r="D309" s="52" t="s">
         <v>251</v>
       </c>
       <c r="E309" s="13"/>
@@ -8241,7 +8173,7 @@
       <c r="A310" s="29"/>
       <c r="B310" s="29"/>
       <c r="C310" s="26"/>
-      <c r="D310" s="3" t="s">
+      <c r="D310" s="52" t="s">
         <v>252</v>
       </c>
       <c r="E310" s="13"/>
@@ -8252,7 +8184,7 @@
       <c r="A311" s="29"/>
       <c r="B311" s="29"/>
       <c r="C311" s="26"/>
-      <c r="D311" s="53" t="s">
+      <c r="D311" s="52" t="s">
         <v>253</v>
       </c>
       <c r="E311" s="13"/>
@@ -8263,7 +8195,7 @@
       <c r="A312" s="29"/>
       <c r="B312" s="29"/>
       <c r="C312" s="26"/>
-      <c r="D312" s="3" t="s">
+      <c r="D312" s="52" t="s">
         <v>254</v>
       </c>
       <c r="E312" s="15"/>
@@ -8298,7 +8230,7 @@
       <c r="A315" s="29"/>
       <c r="B315" s="29"/>
       <c r="C315" s="26"/>
-      <c r="D315" s="53" t="s">
+      <c r="D315" s="52" t="s">
         <v>257</v>
       </c>
       <c r="E315" s="13"/>
@@ -8309,7 +8241,7 @@
       <c r="A316" s="29"/>
       <c r="B316" s="29"/>
       <c r="C316" s="26"/>
-      <c r="D316" s="53" t="s">
+      <c r="D316" s="52" t="s">
         <v>258</v>
       </c>
       <c r="E316" s="13"/>
@@ -8331,7 +8263,7 @@
       <c r="A318" s="29"/>
       <c r="B318" s="29"/>
       <c r="C318" s="27"/>
-      <c r="D318" s="53" t="s">
+      <c r="D318" s="52" t="s">
         <v>260</v>
       </c>
       <c r="E318" s="12"/>
@@ -8342,7 +8274,7 @@
       <c r="A319" s="29"/>
       <c r="B319" s="29"/>
       <c r="C319" s="27"/>
-      <c r="D319" s="53" t="s">
+      <c r="D319" s="52" t="s">
         <v>261</v>
       </c>
       <c r="E319" s="12"/>
@@ -8353,7 +8285,7 @@
       <c r="A320" s="29"/>
       <c r="B320" s="29"/>
       <c r="C320" s="27"/>
-      <c r="D320" s="53" t="s">
+      <c r="D320" s="52" t="s">
         <v>262</v>
       </c>
       <c r="E320" s="12"/>
@@ -8364,7 +8296,7 @@
       <c r="A321" s="29"/>
       <c r="B321" s="29"/>
       <c r="C321" s="27"/>
-      <c r="D321" s="53" t="s">
+      <c r="D321" s="52" t="s">
         <v>263</v>
       </c>
       <c r="E321" s="12"/>
@@ -8375,7 +8307,7 @@
       <c r="A322" s="29"/>
       <c r="B322" s="29"/>
       <c r="C322" s="26"/>
-      <c r="D322" s="54" t="s">
+      <c r="D322" s="53" t="s">
         <v>264</v>
       </c>
       <c r="E322" s="13"/>
@@ -8386,7 +8318,7 @@
       <c r="A323" s="29"/>
       <c r="B323" s="29"/>
       <c r="C323" s="26"/>
-      <c r="D323" s="53" t="s">
+      <c r="D323" s="52" t="s">
         <v>265</v>
       </c>
       <c r="E323" s="13"/>
@@ -8397,7 +8329,7 @@
       <c r="A324" s="29"/>
       <c r="B324" s="29"/>
       <c r="C324" s="26"/>
-      <c r="D324" s="53" t="s">
+      <c r="D324" s="52" t="s">
         <v>266</v>
       </c>
       <c r="E324" s="13"/>
@@ -8408,7 +8340,7 @@
       <c r="A325" s="29"/>
       <c r="B325" s="29"/>
       <c r="C325" s="26"/>
-      <c r="D325" s="53" t="s">
+      <c r="D325" s="52" t="s">
         <v>267</v>
       </c>
       <c r="E325" s="13"/>
@@ -8430,7 +8362,7 @@
       <c r="A327" s="29"/>
       <c r="B327" s="29"/>
       <c r="C327" s="26"/>
-      <c r="D327" s="3" t="s">
+      <c r="D327" s="52" t="s">
         <v>269</v>
       </c>
       <c r="E327" s="15"/>
@@ -8441,7 +8373,7 @@
       <c r="A328" s="29"/>
       <c r="B328" s="29"/>
       <c r="C328" s="26"/>
-      <c r="D328" s="3" t="s">
+      <c r="D328" s="52" t="s">
         <v>270</v>
       </c>
       <c r="E328" s="13"/>
@@ -8452,7 +8384,7 @@
       <c r="A329" s="29"/>
       <c r="B329" s="29"/>
       <c r="C329" s="26"/>
-      <c r="D329" s="3" t="s">
+      <c r="D329" s="52" t="s">
         <v>271</v>
       </c>
       <c r="E329" s="13"/>
@@ -8474,7 +8406,7 @@
       <c r="A331" s="29"/>
       <c r="B331" s="29"/>
       <c r="C331" s="26"/>
-      <c r="D331" s="3" t="s">
+      <c r="D331" s="52" t="s">
         <v>273</v>
       </c>
       <c r="E331" s="13"/>
@@ -8496,7 +8428,7 @@
       <c r="A333" s="29"/>
       <c r="B333" s="29"/>
       <c r="C333" s="26"/>
-      <c r="D333" s="53" t="s">
+      <c r="D333" s="52" t="s">
         <v>275</v>
       </c>
       <c r="E333" s="13"/>
@@ -8507,7 +8439,7 @@
       <c r="A334" s="29"/>
       <c r="B334" s="29"/>
       <c r="C334" s="26"/>
-      <c r="D334" s="3" t="s">
+      <c r="D334" s="52" t="s">
         <v>276</v>
       </c>
       <c r="E334" s="15"/>
@@ -8518,7 +8450,7 @@
       <c r="A335" s="29"/>
       <c r="B335" s="29"/>
       <c r="C335" s="26"/>
-      <c r="D335" s="53" t="s">
+      <c r="D335" s="52" t="s">
         <v>277</v>
       </c>
       <c r="E335" s="13"/>
@@ -8529,7 +8461,7 @@
       <c r="A336" s="29"/>
       <c r="B336" s="29"/>
       <c r="C336" s="26"/>
-      <c r="D336" s="3" t="s">
+      <c r="D336" s="52" t="s">
         <v>278</v>
       </c>
       <c r="E336" s="13"/>
@@ -8551,7 +8483,7 @@
       <c r="A338" s="29"/>
       <c r="B338" s="29"/>
       <c r="C338" s="26"/>
-      <c r="D338" s="3" t="s">
+      <c r="D338" s="52" t="s">
         <v>280</v>
       </c>
       <c r="E338" s="13"/>
@@ -8562,7 +8494,7 @@
       <c r="A339" s="29"/>
       <c r="B339" s="29"/>
       <c r="C339" s="26"/>
-      <c r="D339" s="3" t="s">
+      <c r="D339" s="52" t="s">
         <v>281</v>
       </c>
       <c r="E339" s="13"/>
@@ -8573,7 +8505,7 @@
       <c r="A340" s="29"/>
       <c r="B340" s="29"/>
       <c r="C340" s="26"/>
-      <c r="D340" s="3" t="s">
+      <c r="D340" s="52" t="s">
         <v>282</v>
       </c>
       <c r="E340" s="13"/>
@@ -8595,7 +8527,7 @@
       <c r="A342" s="29"/>
       <c r="B342" s="29"/>
       <c r="C342" s="26"/>
-      <c r="D342" s="3" t="s">
+      <c r="D342" s="52" t="s">
         <v>284</v>
       </c>
       <c r="E342" s="13"/>
@@ -8606,7 +8538,7 @@
       <c r="A343" s="29"/>
       <c r="B343" s="29"/>
       <c r="C343" s="26"/>
-      <c r="D343" s="3" t="s">
+      <c r="D343" s="52" t="s">
         <v>285</v>
       </c>
       <c r="E343" s="13"/>
@@ -8639,7 +8571,7 @@
       <c r="A346" s="29"/>
       <c r="B346" s="29"/>
       <c r="C346" s="26"/>
-      <c r="D346" s="3" t="s">
+      <c r="D346" s="52" t="s">
         <v>288</v>
       </c>
       <c r="E346" s="13"/>
@@ -8650,7 +8582,7 @@
       <c r="A347" s="29"/>
       <c r="B347" s="29"/>
       <c r="C347" s="26"/>
-      <c r="D347" s="3" t="s">
+      <c r="D347" s="52" t="s">
         <v>289</v>
       </c>
       <c r="E347" s="13"/>
@@ -8661,7 +8593,7 @@
       <c r="A348" s="29"/>
       <c r="B348" s="29"/>
       <c r="C348" s="27"/>
-      <c r="D348" s="3" t="s">
+      <c r="D348" s="52" t="s">
         <v>290</v>
       </c>
       <c r="E348" s="12"/>
@@ -8672,7 +8604,7 @@
       <c r="A349" s="29"/>
       <c r="B349" s="29"/>
       <c r="C349" s="27"/>
-      <c r="D349" s="3" t="s">
+      <c r="D349" s="52" t="s">
         <v>291</v>
       </c>
       <c r="E349" s="12"/>
@@ -8683,7 +8615,7 @@
       <c r="A350" s="29"/>
       <c r="B350" s="29"/>
       <c r="C350" s="27"/>
-      <c r="D350" s="3" t="s">
+      <c r="D350" s="52" t="s">
         <v>292</v>
       </c>
       <c r="E350" s="12"/>
@@ -8694,7 +8626,7 @@
       <c r="A351" s="29"/>
       <c r="B351" s="29"/>
       <c r="C351" s="27"/>
-      <c r="D351" s="3" t="s">
+      <c r="D351" s="52" t="s">
         <v>293</v>
       </c>
       <c r="E351" s="12"/>
@@ -8705,7 +8637,7 @@
       <c r="A352" s="29"/>
       <c r="B352" s="29"/>
       <c r="C352" s="27"/>
-      <c r="D352" s="3" t="s">
+      <c r="D352" s="52" t="s">
         <v>294</v>
       </c>
       <c r="E352" s="12"/>
@@ -8727,7 +8659,7 @@
       <c r="A354" s="29"/>
       <c r="B354" s="29"/>
       <c r="C354" s="26"/>
-      <c r="D354" s="3" t="s">
+      <c r="D354" s="52" t="s">
         <v>296</v>
       </c>
       <c r="E354" s="13"/>
@@ -8738,7 +8670,7 @@
       <c r="A355" s="29"/>
       <c r="B355" s="29"/>
       <c r="C355" s="26"/>
-      <c r="D355" s="19" t="s">
+      <c r="D355" s="51" t="s">
         <v>297</v>
       </c>
       <c r="E355" s="15"/>
@@ -8749,7 +8681,7 @@
       <c r="A356" s="29"/>
       <c r="B356" s="29"/>
       <c r="C356" s="26"/>
-      <c r="D356" s="19" t="s">
+      <c r="D356" s="51" t="s">
         <v>287</v>
       </c>
       <c r="E356" s="15"/>
@@ -8771,7 +8703,7 @@
       <c r="A358" s="29"/>
       <c r="B358" s="29"/>
       <c r="C358" s="26"/>
-      <c r="D358" s="19" t="s">
+      <c r="D358" s="51" t="s">
         <v>299</v>
       </c>
       <c r="E358" s="13"/>
@@ -8782,7 +8714,7 @@
       <c r="A359" s="29"/>
       <c r="B359" s="29"/>
       <c r="C359" s="26"/>
-      <c r="D359" s="19" t="s">
+      <c r="D359" s="51" t="s">
         <v>300</v>
       </c>
       <c r="E359" s="15"/>
@@ -8793,7 +8725,7 @@
       <c r="A360" s="29"/>
       <c r="B360" s="29"/>
       <c r="C360" s="26"/>
-      <c r="D360" s="19" t="s">
+      <c r="D360" s="51" t="s">
         <v>301</v>
       </c>
       <c r="E360" s="13"/>
@@ -8804,7 +8736,7 @@
       <c r="A361" s="29"/>
       <c r="B361" s="29"/>
       <c r="C361" s="26"/>
-      <c r="D361" s="19" t="s">
+      <c r="D361" s="51" t="s">
         <v>302</v>
       </c>
       <c r="E361" s="13"/>
@@ -8815,7 +8747,7 @@
       <c r="A362" s="29"/>
       <c r="B362" s="29"/>
       <c r="C362" s="26"/>
-      <c r="D362" s="19" t="s">
+      <c r="D362" s="51" t="s">
         <v>303</v>
       </c>
       <c r="E362" s="13"/>
@@ -8826,7 +8758,7 @@
       <c r="A363" s="29"/>
       <c r="B363" s="29"/>
       <c r="C363" s="26"/>
-      <c r="D363" s="19" t="s">
+      <c r="D363" s="51" t="s">
         <v>304</v>
       </c>
       <c r="E363" s="13"/>
@@ -8837,7 +8769,7 @@
       <c r="A364" s="29"/>
       <c r="B364" s="29"/>
       <c r="C364" s="26"/>
-      <c r="D364" s="19" t="s">
+      <c r="D364" s="51" t="s">
         <v>305</v>
       </c>
       <c r="E364" s="15"/>
@@ -8848,7 +8780,7 @@
       <c r="A365" s="29"/>
       <c r="B365" s="29"/>
       <c r="C365" s="26"/>
-      <c r="D365" s="19" t="s">
+      <c r="D365" s="51" t="s">
         <v>306</v>
       </c>
       <c r="E365" s="13"/>
@@ -8859,7 +8791,7 @@
       <c r="A366" s="29"/>
       <c r="B366" s="29"/>
       <c r="C366" s="26"/>
-      <c r="D366" s="19" t="s">
+      <c r="D366" s="51" t="s">
         <v>307</v>
       </c>
       <c r="E366" s="13"/>
@@ -8870,7 +8802,7 @@
       <c r="A367" s="29"/>
       <c r="B367" s="29"/>
       <c r="C367" s="26"/>
-      <c r="D367" s="19" t="s">
+      <c r="D367" s="51" t="s">
         <v>308</v>
       </c>
       <c r="E367" s="13"/>
@@ -8881,7 +8813,7 @@
       <c r="A368" s="29"/>
       <c r="B368" s="29"/>
       <c r="C368" s="26"/>
-      <c r="D368" s="19" t="s">
+      <c r="D368" s="51" t="s">
         <v>309</v>
       </c>
       <c r="E368" s="13"/>
@@ -8892,7 +8824,7 @@
       <c r="A369" s="29"/>
       <c r="B369" s="29"/>
       <c r="C369" s="26"/>
-      <c r="D369" s="19" t="s">
+      <c r="D369" s="51" t="s">
         <v>310</v>
       </c>
       <c r="E369" s="13"/>
@@ -8920,7 +8852,7 @@
       <c r="A371" s="29"/>
       <c r="B371" s="29"/>
       <c r="C371" s="26"/>
-      <c r="D371" s="54" t="s">
+      <c r="D371" s="53" t="s">
         <v>313</v>
       </c>
       <c r="E371" s="15"/>
@@ -8931,7 +8863,7 @@
       <c r="A372" s="29"/>
       <c r="B372" s="29"/>
       <c r="C372" s="26"/>
-      <c r="D372" s="53" t="s">
+      <c r="D372" s="52" t="s">
         <v>314</v>
       </c>
       <c r="E372" s="13"/>
@@ -8942,7 +8874,7 @@
       <c r="A373" s="29"/>
       <c r="B373" s="29"/>
       <c r="C373" s="26"/>
-      <c r="D373" s="53" t="s">
+      <c r="D373" s="52" t="s">
         <v>315</v>
       </c>
       <c r="E373" s="13"/>
@@ -8964,7 +8896,7 @@
       <c r="A375" s="29"/>
       <c r="B375" s="29"/>
       <c r="C375" s="26"/>
-      <c r="D375" s="53" t="s">
+      <c r="D375" s="52" t="s">
         <v>317</v>
       </c>
       <c r="E375" s="13"/>
@@ -8975,7 +8907,7 @@
       <c r="A376" s="29"/>
       <c r="B376" s="29"/>
       <c r="C376" s="26"/>
-      <c r="D376" s="53" t="s">
+      <c r="D376" s="52" t="s">
         <v>318</v>
       </c>
       <c r="E376" s="13"/>
@@ -8986,7 +8918,7 @@
       <c r="A377" s="29"/>
       <c r="B377" s="29"/>
       <c r="C377" s="26"/>
-      <c r="D377" s="53" t="s">
+      <c r="D377" s="52" t="s">
         <v>319</v>
       </c>
       <c r="E377" s="13"/>
@@ -9019,7 +8951,7 @@
       <c r="A380" s="29"/>
       <c r="B380" s="29"/>
       <c r="C380" s="26"/>
-      <c r="D380" s="53" t="s">
+      <c r="D380" s="52" t="s">
         <v>322</v>
       </c>
       <c r="E380" s="13"/>
@@ -9030,7 +8962,7 @@
       <c r="A381" s="29"/>
       <c r="B381" s="29"/>
       <c r="C381" s="26"/>
-      <c r="D381" s="53" t="s">
+      <c r="D381" s="52" t="s">
         <v>323</v>
       </c>
       <c r="E381" s="13"/>
@@ -9052,7 +8984,7 @@
       <c r="A383" s="29"/>
       <c r="B383" s="29"/>
       <c r="C383" s="26"/>
-      <c r="D383" s="53" t="s">
+      <c r="D383" s="52" t="s">
         <v>325</v>
       </c>
       <c r="E383" s="13"/>
@@ -9063,7 +8995,7 @@
       <c r="A384" s="29"/>
       <c r="B384" s="29"/>
       <c r="C384" s="26"/>
-      <c r="D384" s="53" t="s">
+      <c r="D384" s="52" t="s">
         <v>326</v>
       </c>
       <c r="E384" s="13"/>
@@ -9074,7 +9006,7 @@
       <c r="A385" s="29"/>
       <c r="B385" s="29"/>
       <c r="C385" s="26"/>
-      <c r="D385" s="53" t="s">
+      <c r="D385" s="52" t="s">
         <v>327</v>
       </c>
       <c r="E385" s="13"/>
@@ -9085,7 +9017,7 @@
       <c r="A386" s="29"/>
       <c r="B386" s="29"/>
       <c r="C386" s="26"/>
-      <c r="D386" s="53" t="s">
+      <c r="D386" s="52" t="s">
         <v>328</v>
       </c>
       <c r="E386" s="13"/>
@@ -9096,7 +9028,7 @@
       <c r="A387" s="29"/>
       <c r="B387" s="29"/>
       <c r="C387" s="26"/>
-      <c r="D387" s="53" t="s">
+      <c r="D387" s="52" t="s">
         <v>329</v>
       </c>
       <c r="E387" s="13"/>
@@ -9107,7 +9039,7 @@
       <c r="A388" s="29"/>
       <c r="B388" s="29"/>
       <c r="C388" s="26"/>
-      <c r="D388" s="53" t="s">
+      <c r="D388" s="52" t="s">
         <v>330</v>
       </c>
       <c r="E388" s="13"/>
@@ -9140,7 +9072,7 @@
       <c r="A391" s="29"/>
       <c r="B391" s="29"/>
       <c r="C391" s="26"/>
-      <c r="D391" s="53" t="s">
+      <c r="D391" s="52" t="s">
         <v>333</v>
       </c>
       <c r="E391" s="13"/>
@@ -9151,7 +9083,7 @@
       <c r="A392" s="29"/>
       <c r="B392" s="29"/>
       <c r="C392" s="26"/>
-      <c r="D392" s="3" t="s">
+      <c r="D392" s="52" t="s">
         <v>334</v>
       </c>
       <c r="E392" s="13"/>
@@ -9162,7 +9094,7 @@
       <c r="A393" s="29"/>
       <c r="B393" s="29"/>
       <c r="C393" s="26"/>
-      <c r="D393" s="3" t="s">
+      <c r="D393" s="52" t="s">
         <v>335</v>
       </c>
       <c r="E393" s="13"/>
@@ -9195,7 +9127,7 @@
       <c r="A396" s="29"/>
       <c r="B396" s="29"/>
       <c r="C396" s="26"/>
-      <c r="D396" s="53" t="s">
+      <c r="D396" s="52" t="s">
         <v>338</v>
       </c>
       <c r="E396" s="13"/>
@@ -9206,7 +9138,7 @@
       <c r="A397" s="29"/>
       <c r="B397" s="29"/>
       <c r="C397" s="26"/>
-      <c r="D397" s="3" t="s">
+      <c r="D397" s="52" t="s">
         <v>339</v>
       </c>
       <c r="E397" s="13"/>
@@ -9228,7 +9160,7 @@
       <c r="A399" s="29"/>
       <c r="B399" s="29"/>
       <c r="C399" s="26"/>
-      <c r="D399" s="53" t="s">
+      <c r="D399" s="52" t="s">
         <v>341</v>
       </c>
       <c r="E399" s="13"/>
@@ -9239,7 +9171,7 @@
       <c r="A400" s="29"/>
       <c r="B400" s="29"/>
       <c r="C400" s="26"/>
-      <c r="D400" s="53" t="s">
+      <c r="D400" s="52" t="s">
         <v>342</v>
       </c>
       <c r="E400" s="13"/>
@@ -9250,7 +9182,7 @@
       <c r="A401" s="29"/>
       <c r="B401" s="29"/>
       <c r="C401" s="26"/>
-      <c r="D401" s="53" t="s">
+      <c r="D401" s="52" t="s">
         <v>343</v>
       </c>
       <c r="E401" s="13"/>
@@ -9261,7 +9193,7 @@
       <c r="A402" s="29"/>
       <c r="B402" s="29"/>
       <c r="C402" s="26"/>
-      <c r="D402" s="53" t="s">
+      <c r="D402" s="52" t="s">
         <v>344</v>
       </c>
       <c r="E402" s="13"/>
@@ -9272,7 +9204,7 @@
       <c r="A403" s="29"/>
       <c r="B403" s="29"/>
       <c r="C403" s="26"/>
-      <c r="D403" s="53" t="s">
+      <c r="D403" s="52" t="s">
         <v>345</v>
       </c>
       <c r="E403" s="13"/>
@@ -9294,7 +9226,7 @@
       <c r="A405" s="29"/>
       <c r="B405" s="29"/>
       <c r="C405" s="26"/>
-      <c r="D405" s="3" t="s">
+      <c r="D405" s="52" t="s">
         <v>347</v>
       </c>
       <c r="E405" s="13"/>
@@ -9305,7 +9237,7 @@
       <c r="A406" s="29"/>
       <c r="B406" s="29"/>
       <c r="C406" s="26"/>
-      <c r="D406" s="3" t="s">
+      <c r="D406" s="52" t="s">
         <v>348</v>
       </c>
       <c r="E406" s="13"/>
@@ -9316,7 +9248,7 @@
       <c r="A407" s="29"/>
       <c r="B407" s="29"/>
       <c r="C407" s="26"/>
-      <c r="D407" s="3" t="s">
+      <c r="D407" s="52" t="s">
         <v>349</v>
       </c>
       <c r="E407" s="13"/>
@@ -9338,7 +9270,7 @@
       <c r="A409" s="29"/>
       <c r="B409" s="29"/>
       <c r="C409" s="26"/>
-      <c r="D409" s="53" t="s">
+      <c r="D409" s="52" t="s">
         <v>351</v>
       </c>
       <c r="E409" s="13"/>
@@ -9349,7 +9281,7 @@
       <c r="A410" s="29"/>
       <c r="B410" s="29"/>
       <c r="C410" s="26"/>
-      <c r="D410" s="53" t="s">
+      <c r="D410" s="52" t="s">
         <v>352</v>
       </c>
       <c r="E410" s="13"/>
@@ -9360,7 +9292,7 @@
       <c r="A411" s="29"/>
       <c r="B411" s="29"/>
       <c r="C411" s="27"/>
-      <c r="D411" s="52" t="s">
+      <c r="D411" s="51" t="s">
         <v>736</v>
       </c>
       <c r="E411" s="12"/>
@@ -9382,7 +9314,7 @@
       <c r="A413" s="29"/>
       <c r="B413" s="29"/>
       <c r="C413" s="27"/>
-      <c r="D413" s="52" t="s">
+      <c r="D413" s="51" t="s">
         <v>737</v>
       </c>
       <c r="E413" s="12"/>
@@ -9393,7 +9325,7 @@
       <c r="A414" s="29"/>
       <c r="B414" s="29"/>
       <c r="C414" s="27"/>
-      <c r="D414" s="52" t="s">
+      <c r="D414" s="51" t="s">
         <v>738</v>
       </c>
       <c r="E414" s="12"/>
@@ -9404,7 +9336,7 @@
       <c r="A415" s="29"/>
       <c r="B415" s="29"/>
       <c r="C415" s="27"/>
-      <c r="D415" s="52" t="s">
+      <c r="D415" s="51" t="s">
         <v>739</v>
       </c>
       <c r="E415" s="12"/>
@@ -9415,7 +9347,7 @@
       <c r="A416" s="29"/>
       <c r="B416" s="29"/>
       <c r="C416" s="27"/>
-      <c r="D416" s="52" t="s">
+      <c r="D416" s="51" t="s">
         <v>740</v>
       </c>
       <c r="E416" s="12"/>
@@ -9426,7 +9358,7 @@
       <c r="A417" s="29"/>
       <c r="B417" s="29"/>
       <c r="C417" s="27"/>
-      <c r="D417" s="52" t="s">
+      <c r="D417" s="51" t="s">
         <v>354</v>
       </c>
       <c r="E417" s="12"/>
@@ -9459,7 +9391,7 @@
       <c r="A420" s="29"/>
       <c r="B420" s="29"/>
       <c r="C420" s="27"/>
-      <c r="D420" s="52" t="s">
+      <c r="D420" s="51" t="s">
         <v>741</v>
       </c>
       <c r="E420" s="12"/>
@@ -9470,7 +9402,7 @@
       <c r="A421" s="29"/>
       <c r="B421" s="29"/>
       <c r="C421" s="27"/>
-      <c r="D421" s="52" t="s">
+      <c r="D421" s="51" t="s">
         <v>742</v>
       </c>
       <c r="E421" s="12"/>
@@ -9481,7 +9413,7 @@
       <c r="A422" s="29"/>
       <c r="B422" s="29"/>
       <c r="C422" s="27"/>
-      <c r="D422" s="52" t="s">
+      <c r="D422" s="51" t="s">
         <v>743</v>
       </c>
       <c r="E422" s="12"/>
@@ -9492,7 +9424,7 @@
       <c r="A423" s="29"/>
       <c r="B423" s="29"/>
       <c r="C423" s="27"/>
-      <c r="D423" s="19" t="s">
+      <c r="D423" s="51" t="s">
         <v>744</v>
       </c>
       <c r="E423" s="12"/>
@@ -9503,7 +9435,7 @@
       <c r="A424" s="29"/>
       <c r="B424" s="29"/>
       <c r="C424" s="27"/>
-      <c r="D424" s="52" t="s">
+      <c r="D424" s="51" t="s">
         <v>745</v>
       </c>
       <c r="E424" s="12"/>
@@ -9514,7 +9446,7 @@
       <c r="A425" s="29"/>
       <c r="B425" s="29"/>
       <c r="C425" s="27"/>
-      <c r="D425" s="52" t="s">
+      <c r="D425" s="51" t="s">
         <v>357</v>
       </c>
       <c r="E425" s="12"/>
@@ -9536,7 +9468,7 @@
       <c r="A427" s="29"/>
       <c r="B427" s="29"/>
       <c r="C427" s="27"/>
-      <c r="D427" s="52" t="s">
+      <c r="D427" s="51" t="s">
         <v>359</v>
       </c>
       <c r="E427" s="12"/>
@@ -9547,7 +9479,7 @@
       <c r="A428" s="29"/>
       <c r="B428" s="29"/>
       <c r="C428" s="27"/>
-      <c r="D428" s="52" t="s">
+      <c r="D428" s="51" t="s">
         <v>360</v>
       </c>
       <c r="E428" s="12"/>
@@ -9558,7 +9490,7 @@
       <c r="A429" s="29"/>
       <c r="B429" s="29"/>
       <c r="C429" s="27"/>
-      <c r="D429" s="52" t="s">
+      <c r="D429" s="51" t="s">
         <v>361</v>
       </c>
       <c r="E429" s="12"/>
@@ -9569,7 +9501,7 @@
       <c r="A430" s="29"/>
       <c r="B430" s="29"/>
       <c r="C430" s="27"/>
-      <c r="D430" s="52" t="s">
+      <c r="D430" s="51" t="s">
         <v>362</v>
       </c>
       <c r="E430" s="12"/>
@@ -9580,7 +9512,7 @@
       <c r="A431" s="29"/>
       <c r="B431" s="29"/>
       <c r="C431" s="27"/>
-      <c r="D431" s="52" t="s">
+      <c r="D431" s="51" t="s">
         <v>363</v>
       </c>
       <c r="E431" s="12"/>
@@ -9591,7 +9523,7 @@
       <c r="A432" s="29"/>
       <c r="B432" s="29"/>
       <c r="C432" s="27"/>
-      <c r="D432" s="52" t="s">
+      <c r="D432" s="51" t="s">
         <v>364</v>
       </c>
       <c r="E432" s="12"/>
@@ -9602,7 +9534,7 @@
       <c r="A433" s="29"/>
       <c r="B433" s="29"/>
       <c r="C433" s="27"/>
-      <c r="D433" s="52" t="s">
+      <c r="D433" s="51" t="s">
         <v>365</v>
       </c>
       <c r="E433" s="12"/>
@@ -9613,7 +9545,7 @@
       <c r="A434" s="29"/>
       <c r="B434" s="29"/>
       <c r="C434" s="27"/>
-      <c r="D434" s="52" t="s">
+      <c r="D434" s="51" t="s">
         <v>366</v>
       </c>
       <c r="E434" s="12"/>
@@ -9624,7 +9556,7 @@
       <c r="A435" s="29"/>
       <c r="B435" s="29"/>
       <c r="C435" s="27"/>
-      <c r="D435" s="52" t="s">
+      <c r="D435" s="51" t="s">
         <v>367</v>
       </c>
       <c r="E435" s="12"/>
@@ -9635,7 +9567,7 @@
       <c r="A436" s="29"/>
       <c r="B436" s="29"/>
       <c r="C436" s="27"/>
-      <c r="D436" s="52" t="s">
+      <c r="D436" s="51" t="s">
         <v>368</v>
       </c>
       <c r="E436" s="12"/>
@@ -9646,7 +9578,7 @@
       <c r="A437" s="29"/>
       <c r="B437" s="29"/>
       <c r="C437" s="27"/>
-      <c r="D437" s="52" t="s">
+      <c r="D437" s="51" t="s">
         <v>369</v>
       </c>
       <c r="E437" s="12"/>
@@ -9657,7 +9589,7 @@
       <c r="A438" s="29"/>
       <c r="B438" s="29"/>
       <c r="C438" s="27"/>
-      <c r="D438" s="52" t="s">
+      <c r="D438" s="51" t="s">
         <v>370</v>
       </c>
       <c r="E438" s="12"/>
@@ -9668,7 +9600,7 @@
       <c r="A439" s="29"/>
       <c r="B439" s="29"/>
       <c r="C439" s="27"/>
-      <c r="D439" s="52" t="s">
+      <c r="D439" s="51" t="s">
         <v>371</v>
       </c>
       <c r="E439" s="12"/>
@@ -9679,7 +9611,7 @@
       <c r="A440" s="29"/>
       <c r="B440" s="29"/>
       <c r="C440" s="27"/>
-      <c r="D440" s="52" t="s">
+      <c r="D440" s="51" t="s">
         <v>372</v>
       </c>
       <c r="E440" s="12"/>
@@ -9690,7 +9622,7 @@
       <c r="A441" s="29"/>
       <c r="B441" s="29"/>
       <c r="C441" s="27"/>
-      <c r="D441" s="52" t="s">
+      <c r="D441" s="51" t="s">
         <v>373</v>
       </c>
       <c r="E441" s="12"/>
@@ -9701,7 +9633,7 @@
       <c r="A442" s="29"/>
       <c r="B442" s="29"/>
       <c r="C442" s="27"/>
-      <c r="D442" s="52" t="s">
+      <c r="D442" s="51" t="s">
         <v>746</v>
       </c>
       <c r="E442" s="12"/>
@@ -9712,7 +9644,7 @@
       <c r="A443" s="29"/>
       <c r="B443" s="29"/>
       <c r="C443" s="27"/>
-      <c r="D443" s="52" t="s">
+      <c r="D443" s="51" t="s">
         <v>747</v>
       </c>
       <c r="E443" s="12"/>
@@ -9723,7 +9655,7 @@
       <c r="A444" s="29"/>
       <c r="B444" s="29"/>
       <c r="C444" s="27"/>
-      <c r="D444" s="52" t="s">
+      <c r="D444" s="51" t="s">
         <v>748</v>
       </c>
       <c r="E444" s="12"/>
@@ -9734,7 +9666,7 @@
       <c r="A445" s="29"/>
       <c r="B445" s="29"/>
       <c r="C445" s="27"/>
-      <c r="D445" s="52" t="s">
+      <c r="D445" s="51" t="s">
         <v>749</v>
       </c>
       <c r="E445" s="12"/>
@@ -9745,7 +9677,7 @@
       <c r="A446" s="29"/>
       <c r="B446" s="29"/>
       <c r="C446" s="27"/>
-      <c r="D446" s="52" t="s">
+      <c r="D446" s="51" t="s">
         <v>374</v>
       </c>
       <c r="E446" s="12"/>
@@ -9756,7 +9688,7 @@
       <c r="A447" s="29"/>
       <c r="B447" s="29"/>
       <c r="C447" s="27"/>
-      <c r="D447" s="52" t="s">
+      <c r="D447" s="51" t="s">
         <v>375</v>
       </c>
       <c r="E447" s="12"/>
@@ -9767,7 +9699,7 @@
       <c r="A448" s="29"/>
       <c r="B448" s="29"/>
       <c r="C448" s="27"/>
-      <c r="D448" s="52" t="s">
+      <c r="D448" s="51" t="s">
         <v>376</v>
       </c>
       <c r="E448" s="12"/>
@@ -9778,7 +9710,7 @@
       <c r="A449" s="29"/>
       <c r="B449" s="29"/>
       <c r="C449" s="27"/>
-      <c r="D449" s="52" t="s">
+      <c r="D449" s="51" t="s">
         <v>377</v>
       </c>
       <c r="E449" s="12"/>
@@ -9789,7 +9721,7 @@
       <c r="A450" s="29"/>
       <c r="B450" s="29"/>
       <c r="C450" s="27"/>
-      <c r="D450" s="52" t="s">
+      <c r="D450" s="51" t="s">
         <v>378</v>
       </c>
       <c r="E450" s="12"/>
@@ -9800,7 +9732,7 @@
       <c r="A451" s="29"/>
       <c r="B451" s="29"/>
       <c r="C451" s="27"/>
-      <c r="D451" s="52" t="s">
+      <c r="D451" s="51" t="s">
         <v>379</v>
       </c>
       <c r="E451" s="12"/>
@@ -9811,7 +9743,7 @@
       <c r="A452" s="29"/>
       <c r="B452" s="29"/>
       <c r="C452" s="27"/>
-      <c r="D452" s="52" t="s">
+      <c r="D452" s="51" t="s">
         <v>380</v>
       </c>
       <c r="E452" s="12"/>
@@ -9822,7 +9754,7 @@
       <c r="A453" s="29"/>
       <c r="B453" s="29"/>
       <c r="C453" s="27"/>
-      <c r="D453" s="52" t="s">
+      <c r="D453" s="51" t="s">
         <v>750</v>
       </c>
       <c r="E453" s="12"/>
@@ -9833,7 +9765,7 @@
       <c r="A454" s="29"/>
       <c r="B454" s="29"/>
       <c r="C454" s="27"/>
-      <c r="D454" s="52" t="s">
+      <c r="D454" s="51" t="s">
         <v>751</v>
       </c>
       <c r="E454" s="12"/>
@@ -9844,7 +9776,7 @@
       <c r="A455" s="29"/>
       <c r="B455" s="29"/>
       <c r="C455" s="27"/>
-      <c r="D455" s="52" t="s">
+      <c r="D455" s="51" t="s">
         <v>752</v>
       </c>
       <c r="E455" s="12"/>
@@ -9855,7 +9787,7 @@
       <c r="A456" s="29"/>
       <c r="B456" s="29"/>
       <c r="C456" s="27"/>
-      <c r="D456" s="52" t="s">
+      <c r="D456" s="51" t="s">
         <v>753</v>
       </c>
       <c r="E456" s="12"/>
@@ -9866,7 +9798,7 @@
       <c r="A457" s="29"/>
       <c r="B457" s="29"/>
       <c r="C457" s="27"/>
-      <c r="D457" s="52" t="s">
+      <c r="D457" s="51" t="s">
         <v>381</v>
       </c>
       <c r="E457" s="12"/>
@@ -9877,7 +9809,7 @@
       <c r="A458" s="29"/>
       <c r="B458" s="29"/>
       <c r="C458" s="27"/>
-      <c r="D458" s="52" t="s">
+      <c r="D458" s="51" t="s">
         <v>382</v>
       </c>
       <c r="E458" s="12"/>
@@ -9888,7 +9820,7 @@
       <c r="A459" s="29"/>
       <c r="B459" s="29"/>
       <c r="C459" s="27"/>
-      <c r="D459" s="52" t="s">
+      <c r="D459" s="51" t="s">
         <v>754</v>
       </c>
       <c r="E459" s="12"/>
@@ -9899,7 +9831,7 @@
       <c r="A460" s="29"/>
       <c r="B460" s="29"/>
       <c r="C460" s="27"/>
-      <c r="D460" s="52" t="s">
+      <c r="D460" s="51" t="s">
         <v>755</v>
       </c>
       <c r="E460" s="12"/>
@@ -9910,7 +9842,7 @@
       <c r="A461" s="29"/>
       <c r="B461" s="29"/>
       <c r="C461" s="27"/>
-      <c r="D461" s="52" t="s">
+      <c r="D461" s="51" t="s">
         <v>756</v>
       </c>
       <c r="E461" s="12"/>
@@ -9921,7 +9853,7 @@
       <c r="A462" s="29"/>
       <c r="B462" s="29"/>
       <c r="C462" s="27"/>
-      <c r="D462" s="52" t="s">
+      <c r="D462" s="51" t="s">
         <v>383</v>
       </c>
       <c r="E462" s="12"/>
@@ -9932,7 +9864,7 @@
       <c r="A463" s="29"/>
       <c r="B463" s="29"/>
       <c r="C463" s="27"/>
-      <c r="D463" s="52" t="s">
+      <c r="D463" s="51" t="s">
         <v>757</v>
       </c>
       <c r="E463" s="12"/>
@@ -9943,7 +9875,7 @@
       <c r="A464" s="29"/>
       <c r="B464" s="29"/>
       <c r="C464" s="27"/>
-      <c r="D464" s="52" t="s">
+      <c r="D464" s="51" t="s">
         <v>758</v>
       </c>
       <c r="E464" s="12"/>
@@ -9954,7 +9886,7 @@
       <c r="A465" s="29"/>
       <c r="B465" s="29"/>
       <c r="C465" s="27"/>
-      <c r="D465" s="19" t="s">
+      <c r="D465" s="51" t="s">
         <v>384</v>
       </c>
       <c r="E465" s="12"/>
@@ -9965,7 +9897,7 @@
       <c r="A466" s="29"/>
       <c r="B466" s="29"/>
       <c r="C466" s="27"/>
-      <c r="D466" s="52" t="s">
+      <c r="D466" s="51" t="s">
         <v>759</v>
       </c>
       <c r="E466" s="12"/>
@@ -9976,7 +9908,7 @@
       <c r="A467" s="29"/>
       <c r="B467" s="29"/>
       <c r="C467" s="27"/>
-      <c r="D467" s="52" t="s">
+      <c r="D467" s="51" t="s">
         <v>760</v>
       </c>
       <c r="E467" s="12"/>
@@ -9987,7 +9919,7 @@
       <c r="A468" s="29"/>
       <c r="B468" s="29"/>
       <c r="C468" s="27"/>
-      <c r="D468" s="52" t="s">
+      <c r="D468" s="51" t="s">
         <v>761</v>
       </c>
       <c r="E468" s="12"/>
@@ -9998,7 +9930,7 @@
       <c r="A469" s="29"/>
       <c r="B469" s="29"/>
       <c r="C469" s="27"/>
-      <c r="D469" s="52" t="s">
+      <c r="D469" s="51" t="s">
         <v>762</v>
       </c>
       <c r="E469" s="12"/>
@@ -10020,7 +9952,7 @@
       <c r="A471" s="29"/>
       <c r="B471" s="29"/>
       <c r="C471" s="27"/>
-      <c r="D471" s="52" t="s">
+      <c r="D471" s="51" t="s">
         <v>386</v>
       </c>
       <c r="E471" s="12"/>
@@ -10031,7 +9963,7 @@
       <c r="A472" s="29"/>
       <c r="B472" s="29"/>
       <c r="C472" s="27"/>
-      <c r="D472" s="52" t="s">
+      <c r="D472" s="51" t="s">
         <v>387</v>
       </c>
       <c r="E472" s="12"/>
@@ -10042,7 +9974,7 @@
       <c r="A473" s="29"/>
       <c r="B473" s="29"/>
       <c r="C473" s="27"/>
-      <c r="D473" s="52" t="s">
+      <c r="D473" s="51" t="s">
         <v>763</v>
       </c>
       <c r="E473" s="12"/>
@@ -10053,7 +9985,7 @@
       <c r="A474" s="29"/>
       <c r="B474" s="29"/>
       <c r="C474" s="27"/>
-      <c r="D474" s="52" t="s">
+      <c r="D474" s="51" t="s">
         <v>764</v>
       </c>
       <c r="E474" s="12"/>
@@ -10064,7 +9996,7 @@
       <c r="A475" s="29"/>
       <c r="B475" s="29"/>
       <c r="C475" s="27"/>
-      <c r="D475" s="52" t="s">
+      <c r="D475" s="51" t="s">
         <v>388</v>
       </c>
       <c r="E475" s="12"/>
@@ -10075,7 +10007,7 @@
       <c r="A476" s="29"/>
       <c r="B476" s="29"/>
       <c r="C476" s="27"/>
-      <c r="D476" s="52" t="s">
+      <c r="D476" s="51" t="s">
         <v>389</v>
       </c>
       <c r="E476" s="12"/>
@@ -10086,7 +10018,7 @@
       <c r="A477" s="29"/>
       <c r="B477" s="29"/>
       <c r="C477" s="27"/>
-      <c r="D477" s="52" t="s">
+      <c r="D477" s="51" t="s">
         <v>390</v>
       </c>
       <c r="E477" s="12"/>
@@ -10097,7 +10029,7 @@
       <c r="A478" s="29"/>
       <c r="B478" s="29"/>
       <c r="C478" s="27"/>
-      <c r="D478" s="52" t="s">
+      <c r="D478" s="51" t="s">
         <v>765</v>
       </c>
       <c r="E478" s="12"/>
@@ -10108,7 +10040,7 @@
       <c r="A479" s="29"/>
       <c r="B479" s="29"/>
       <c r="C479" s="27"/>
-      <c r="D479" s="52" t="s">
+      <c r="D479" s="51" t="s">
         <v>766</v>
       </c>
       <c r="E479" s="12"/>
@@ -10119,7 +10051,7 @@
       <c r="A480" s="29"/>
       <c r="B480" s="29"/>
       <c r="C480" s="27"/>
-      <c r="D480" s="52" t="s">
+      <c r="D480" s="51" t="s">
         <v>767</v>
       </c>
       <c r="E480" s="12"/>
@@ -10130,7 +10062,7 @@
       <c r="A481" s="29"/>
       <c r="B481" s="29"/>
       <c r="C481" s="27"/>
-      <c r="D481" s="19" t="s">
+      <c r="D481" s="51" t="s">
         <v>391</v>
       </c>
       <c r="E481" s="12"/>
@@ -10141,7 +10073,7 @@
       <c r="A482" s="29"/>
       <c r="B482" s="29"/>
       <c r="C482" s="27"/>
-      <c r="D482" s="52" t="s">
+      <c r="D482" s="51" t="s">
         <v>768</v>
       </c>
       <c r="E482" s="12"/>
@@ -10152,7 +10084,7 @@
       <c r="A483" s="29"/>
       <c r="B483" s="29"/>
       <c r="C483" s="27"/>
-      <c r="D483" s="52" t="s">
+      <c r="D483" s="51" t="s">
         <v>769</v>
       </c>
       <c r="E483" s="12"/>
@@ -10163,7 +10095,7 @@
       <c r="A484" s="29"/>
       <c r="B484" s="29"/>
       <c r="C484" s="27"/>
-      <c r="D484" s="52" t="s">
+      <c r="D484" s="51" t="s">
         <v>770</v>
       </c>
       <c r="E484" s="12"/>
@@ -10174,7 +10106,7 @@
       <c r="A485" s="29"/>
       <c r="B485" s="29"/>
       <c r="C485" s="27"/>
-      <c r="D485" s="52" t="s">
+      <c r="D485" s="51" t="s">
         <v>771</v>
       </c>
       <c r="E485" s="12"/>
@@ -10185,7 +10117,7 @@
       <c r="A486" s="29"/>
       <c r="B486" s="29"/>
       <c r="C486" s="27"/>
-      <c r="D486" s="52" t="s">
+      <c r="D486" s="51" t="s">
         <v>772</v>
       </c>
       <c r="E486" s="12"/>
@@ -10196,7 +10128,7 @@
       <c r="A487" s="29"/>
       <c r="B487" s="29"/>
       <c r="C487" s="27"/>
-      <c r="D487" s="52" t="s">
+      <c r="D487" s="51" t="s">
         <v>773</v>
       </c>
       <c r="E487" s="12"/>
@@ -10207,7 +10139,7 @@
       <c r="A488" s="29"/>
       <c r="B488" s="29"/>
       <c r="C488" s="27"/>
-      <c r="D488" s="52" t="s">
+      <c r="D488" s="51" t="s">
         <v>774</v>
       </c>
       <c r="E488" s="12"/>
@@ -10218,7 +10150,7 @@
       <c r="A489" s="29"/>
       <c r="B489" s="29"/>
       <c r="C489" s="27"/>
-      <c r="D489" s="52" t="s">
+      <c r="D489" s="51" t="s">
         <v>775</v>
       </c>
       <c r="E489" s="12"/>
@@ -10229,7 +10161,7 @@
       <c r="A490" s="29"/>
       <c r="B490" s="29"/>
       <c r="C490" s="27"/>
-      <c r="D490" s="19" t="s">
+      <c r="D490" s="51" t="s">
         <v>776</v>
       </c>
       <c r="E490" s="12"/>
@@ -10240,7 +10172,7 @@
       <c r="A491" s="29"/>
       <c r="B491" s="29"/>
       <c r="C491" s="27"/>
-      <c r="D491" s="52" t="s">
+      <c r="D491" s="51" t="s">
         <v>392</v>
       </c>
       <c r="E491" s="12"/>
@@ -10251,7 +10183,7 @@
       <c r="A492" s="29"/>
       <c r="B492" s="29"/>
       <c r="C492" s="27"/>
-      <c r="D492" s="52" t="s">
+      <c r="D492" s="51" t="s">
         <v>777</v>
       </c>
       <c r="E492" s="12"/>
@@ -10273,7 +10205,7 @@
       <c r="A494" s="29"/>
       <c r="B494" s="29"/>
       <c r="C494" s="27"/>
-      <c r="D494" s="52" t="s">
+      <c r="D494" s="51" t="s">
         <v>778</v>
       </c>
       <c r="E494" s="12"/>
@@ -10284,7 +10216,7 @@
       <c r="A495" s="29"/>
       <c r="B495" s="29"/>
       <c r="C495" s="27"/>
-      <c r="D495" s="52" t="s">
+      <c r="D495" s="51" t="s">
         <v>394</v>
       </c>
       <c r="E495" s="12"/>
@@ -10295,7 +10227,7 @@
       <c r="A496" s="29"/>
       <c r="B496" s="29"/>
       <c r="C496" s="27"/>
-      <c r="D496" s="52" t="s">
+      <c r="D496" s="51" t="s">
         <v>395</v>
       </c>
       <c r="E496" s="12"/>
@@ -10306,7 +10238,7 @@
       <c r="A497" s="29"/>
       <c r="B497" s="29"/>
       <c r="C497" s="27"/>
-      <c r="D497" s="52" t="s">
+      <c r="D497" s="51" t="s">
         <v>396</v>
       </c>
       <c r="E497" s="12"/>
@@ -10317,7 +10249,7 @@
       <c r="A498" s="29"/>
       <c r="B498" s="29"/>
       <c r="C498" s="27"/>
-      <c r="D498" s="52" t="s">
+      <c r="D498" s="51" t="s">
         <v>779</v>
       </c>
       <c r="E498" s="12"/>
@@ -10328,7 +10260,7 @@
       <c r="A499" s="29"/>
       <c r="B499" s="29"/>
       <c r="C499" s="27"/>
-      <c r="D499" s="52" t="s">
+      <c r="D499" s="51" t="s">
         <v>780</v>
       </c>
       <c r="E499" s="12"/>
@@ -10339,7 +10271,7 @@
       <c r="A500" s="29"/>
       <c r="B500" s="29"/>
       <c r="C500" s="27"/>
-      <c r="D500" s="52" t="s">
+      <c r="D500" s="51" t="s">
         <v>781</v>
       </c>
       <c r="E500" s="12"/>
@@ -10361,7 +10293,7 @@
       <c r="A502" s="29"/>
       <c r="B502" s="29"/>
       <c r="C502" s="27"/>
-      <c r="D502" s="52" t="s">
+      <c r="D502" s="51" t="s">
         <v>782</v>
       </c>
       <c r="E502" s="12"/>
@@ -10372,7 +10304,7 @@
       <c r="A503" s="29"/>
       <c r="B503" s="29"/>
       <c r="C503" s="27"/>
-      <c r="D503" s="19" t="s">
+      <c r="D503" s="51" t="s">
         <v>783</v>
       </c>
       <c r="E503" s="12"/>
@@ -10383,7 +10315,7 @@
       <c r="A504" s="29"/>
       <c r="B504" s="29"/>
       <c r="C504" s="27"/>
-      <c r="D504" s="19" t="s">
+      <c r="D504" s="51" t="s">
         <v>784</v>
       </c>
       <c r="E504" s="12"/>
@@ -10394,7 +10326,7 @@
       <c r="A505" s="29"/>
       <c r="B505" s="29"/>
       <c r="C505" s="27"/>
-      <c r="D505" s="19" t="s">
+      <c r="D505" s="51" t="s">
         <v>398</v>
       </c>
       <c r="E505" s="12"/>
@@ -10405,7 +10337,7 @@
       <c r="A506" s="29"/>
       <c r="B506" s="29"/>
       <c r="C506" s="27"/>
-      <c r="D506" s="52" t="s">
+      <c r="D506" s="51" t="s">
         <v>785</v>
       </c>
       <c r="E506" s="12"/>
@@ -10416,7 +10348,7 @@
       <c r="A507" s="29"/>
       <c r="B507" s="29"/>
       <c r="C507" s="27"/>
-      <c r="D507" s="52" t="s">
+      <c r="D507" s="51" t="s">
         <v>786</v>
       </c>
       <c r="E507" s="12"/>
@@ -10438,7 +10370,7 @@
       <c r="A509" s="29"/>
       <c r="B509" s="29"/>
       <c r="C509" s="27"/>
-      <c r="D509" s="52" t="s">
+      <c r="D509" s="51" t="s">
         <v>400</v>
       </c>
       <c r="E509" s="12"/>
@@ -10460,7 +10392,7 @@
       <c r="A511" s="29"/>
       <c r="B511" s="29"/>
       <c r="C511" s="26"/>
-      <c r="D511" s="53" t="s">
+      <c r="D511" s="52" t="s">
         <v>402</v>
       </c>
       <c r="E511" s="13"/>
@@ -10484,7 +10416,7 @@
       <c r="A513" s="29"/>
       <c r="B513" s="29"/>
       <c r="C513" s="26"/>
-      <c r="D513" s="53" t="s">
+      <c r="D513" s="52" t="s">
         <v>403</v>
       </c>
       <c r="E513" s="13"/>
@@ -10495,7 +10427,7 @@
       <c r="A514" s="29"/>
       <c r="B514" s="29"/>
       <c r="C514" s="26"/>
-      <c r="D514" s="54" t="s">
+      <c r="D514" s="53" t="s">
         <v>404</v>
       </c>
       <c r="E514" s="15"/>
@@ -10517,7 +10449,7 @@
       <c r="A516" s="29"/>
       <c r="B516" s="29"/>
       <c r="C516" s="26"/>
-      <c r="D516" s="53" t="s">
+      <c r="D516" s="52" t="s">
         <v>406</v>
       </c>
       <c r="E516" s="13"/>
@@ -10528,7 +10460,7 @@
       <c r="A517" s="29"/>
       <c r="B517" s="29"/>
       <c r="C517" s="26"/>
-      <c r="D517" s="53" t="s">
+      <c r="D517" s="52" t="s">
         <v>407</v>
       </c>
       <c r="E517" s="13"/>
@@ -10539,7 +10471,7 @@
       <c r="A518" s="29"/>
       <c r="B518" s="29"/>
       <c r="C518" s="26"/>
-      <c r="D518" s="53" t="s">
+      <c r="D518" s="52" t="s">
         <v>408</v>
       </c>
       <c r="E518" s="13"/>
@@ -10550,7 +10482,7 @@
       <c r="A519" s="29"/>
       <c r="B519" s="29"/>
       <c r="C519" s="26"/>
-      <c r="D519" s="2" t="s">
+      <c r="D519" s="53" t="s">
         <v>409</v>
       </c>
       <c r="E519" s="15"/>
@@ -10570,7 +10502,7 @@
       <c r="A521" s="29"/>
       <c r="B521" s="29"/>
       <c r="C521" s="26"/>
-      <c r="D521" s="54" t="s">
+      <c r="D521" s="53" t="s">
         <v>411</v>
       </c>
       <c r="E521" s="15"/>
@@ -10581,7 +10513,7 @@
       <c r="A522" s="29"/>
       <c r="B522" s="29"/>
       <c r="C522" s="27"/>
-      <c r="D522" s="52" t="s">
+      <c r="D522" s="51" t="s">
         <v>412</v>
       </c>
       <c r="E522" s="12"/>
@@ -10592,7 +10524,7 @@
       <c r="A523" s="29"/>
       <c r="B523" s="29"/>
       <c r="C523" s="27"/>
-      <c r="D523" s="52" t="s">
+      <c r="D523" s="51" t="s">
         <v>413</v>
       </c>
       <c r="E523" s="12"/>
@@ -10603,7 +10535,7 @@
       <c r="A524" s="29"/>
       <c r="B524" s="29"/>
       <c r="C524" s="27"/>
-      <c r="D524" s="52" t="s">
+      <c r="D524" s="51" t="s">
         <v>414</v>
       </c>
       <c r="E524" s="12"/>
@@ -10614,7 +10546,7 @@
       <c r="A525" s="29"/>
       <c r="B525" s="29"/>
       <c r="C525" s="27"/>
-      <c r="D525" s="52" t="s">
+      <c r="D525" s="51" t="s">
         <v>415</v>
       </c>
       <c r="E525" s="12"/>
@@ -10625,7 +10557,7 @@
       <c r="A526" s="29"/>
       <c r="B526" s="29"/>
       <c r="C526" s="27"/>
-      <c r="D526" s="52" t="s">
+      <c r="D526" s="51" t="s">
         <v>416</v>
       </c>
       <c r="E526" s="12"/>
@@ -10636,7 +10568,7 @@
       <c r="A527" s="29"/>
       <c r="B527" s="29"/>
       <c r="C527" s="27"/>
-      <c r="D527" s="52" t="s">
+      <c r="D527" s="51" t="s">
         <v>417</v>
       </c>
       <c r="E527" s="12"/>
@@ -10647,7 +10579,7 @@
       <c r="A528" s="29"/>
       <c r="B528" s="29"/>
       <c r="C528" s="27"/>
-      <c r="D528" s="52" t="s">
+      <c r="D528" s="51" t="s">
         <v>418</v>
       </c>
       <c r="E528" s="12"/>
@@ -10658,7 +10590,7 @@
       <c r="A529" s="29"/>
       <c r="B529" s="29"/>
       <c r="C529" s="27"/>
-      <c r="D529" s="52" t="s">
+      <c r="D529" s="51" t="s">
         <v>419</v>
       </c>
       <c r="E529" s="12"/>
@@ -10669,7 +10601,7 @@
       <c r="A530" s="29"/>
       <c r="B530" s="29"/>
       <c r="C530" s="27"/>
-      <c r="D530" s="52" t="s">
+      <c r="D530" s="51" t="s">
         <v>420</v>
       </c>
       <c r="E530" s="12"/>
@@ -10680,7 +10612,7 @@
       <c r="A531" s="29"/>
       <c r="B531" s="29"/>
       <c r="C531" s="27"/>
-      <c r="D531" s="52" t="s">
+      <c r="D531" s="51" t="s">
         <v>421</v>
       </c>
       <c r="E531" s="12"/>
@@ -10691,7 +10623,7 @@
       <c r="A532" s="29"/>
       <c r="B532" s="29"/>
       <c r="C532" s="27"/>
-      <c r="D532" s="52" t="s">
+      <c r="D532" s="51" t="s">
         <v>422</v>
       </c>
       <c r="E532" s="12"/>
@@ -10702,7 +10634,7 @@
       <c r="A533" s="29"/>
       <c r="B533" s="29"/>
       <c r="C533" s="27"/>
-      <c r="D533" s="52" t="s">
+      <c r="D533" s="51" t="s">
         <v>423</v>
       </c>
       <c r="E533" s="12"/>
@@ -10713,7 +10645,7 @@
       <c r="A534" s="29"/>
       <c r="B534" s="29"/>
       <c r="C534" s="27"/>
-      <c r="D534" s="52" t="s">
+      <c r="D534" s="51" t="s">
         <v>424</v>
       </c>
       <c r="E534" s="12"/>
@@ -10724,7 +10656,7 @@
       <c r="A535" s="29"/>
       <c r="B535" s="29"/>
       <c r="C535" s="27"/>
-      <c r="D535" s="52" t="s">
+      <c r="D535" s="51" t="s">
         <v>425</v>
       </c>
       <c r="E535" s="12"/>
@@ -10735,7 +10667,7 @@
       <c r="A536" s="29"/>
       <c r="B536" s="29"/>
       <c r="C536" s="27"/>
-      <c r="D536" s="52" t="s">
+      <c r="D536" s="51" t="s">
         <v>426</v>
       </c>
       <c r="E536" s="12"/>
@@ -10746,7 +10678,7 @@
       <c r="A537" s="29"/>
       <c r="B537" s="29"/>
       <c r="C537" s="27"/>
-      <c r="D537" s="52" t="s">
+      <c r="D537" s="51" t="s">
         <v>427</v>
       </c>
       <c r="E537" s="12"/>
@@ -10757,7 +10689,7 @@
       <c r="A538" s="29"/>
       <c r="B538" s="29"/>
       <c r="C538" s="27"/>
-      <c r="D538" s="52" t="s">
+      <c r="D538" s="51" t="s">
         <v>428</v>
       </c>
       <c r="E538" s="12"/>
@@ -10768,7 +10700,7 @@
       <c r="A539" s="29"/>
       <c r="B539" s="29"/>
       <c r="C539" s="27"/>
-      <c r="D539" s="52" t="s">
+      <c r="D539" s="51" t="s">
         <v>429</v>
       </c>
       <c r="E539" s="12"/>
@@ -10779,7 +10711,7 @@
       <c r="A540" s="29"/>
       <c r="B540" s="29"/>
       <c r="C540" s="27"/>
-      <c r="D540" s="46" t="s">
+      <c r="D540" s="51" t="s">
         <v>430</v>
       </c>
       <c r="E540" s="12"/>
@@ -10790,7 +10722,7 @@
       <c r="A541" s="29"/>
       <c r="B541" s="29"/>
       <c r="C541" s="27"/>
-      <c r="D541" s="46" t="s">
+      <c r="D541" s="51" t="s">
         <v>431</v>
       </c>
       <c r="E541" s="12"/>
@@ -10801,7 +10733,7 @@
       <c r="A542" s="29"/>
       <c r="B542" s="29"/>
       <c r="C542" s="27"/>
-      <c r="D542" s="52" t="s">
+      <c r="D542" s="51" t="s">
         <v>432</v>
       </c>
       <c r="E542" s="12"/>
@@ -10812,7 +10744,7 @@
       <c r="A543" s="29"/>
       <c r="B543" s="29"/>
       <c r="C543" s="27"/>
-      <c r="D543" s="52" t="s">
+      <c r="D543" s="51" t="s">
         <v>433</v>
       </c>
       <c r="E543" s="12"/>
@@ -10823,7 +10755,7 @@
       <c r="A544" s="29"/>
       <c r="B544" s="29"/>
       <c r="C544" s="27"/>
-      <c r="D544" s="52" t="s">
+      <c r="D544" s="51" t="s">
         <v>434</v>
       </c>
       <c r="E544" s="12"/>
@@ -10838,8 +10770,8 @@
       <c r="C545" s="27" t="s">
         <v>855</v>
       </c>
-      <c r="D545" s="46" t="s">
-        <v>859</v>
+      <c r="D545" s="51" t="s">
+        <v>856</v>
       </c>
       <c r="E545" s="12"/>
       <c r="F545" s="12"/>
@@ -10866,8 +10798,8 @@
       <c r="A547" s="29"/>
       <c r="B547" s="29"/>
       <c r="C547" s="26"/>
-      <c r="D547" s="3" t="s">
-        <v>856</v>
+      <c r="D547" s="58" t="s">
+        <v>859</v>
       </c>
       <c r="E547" s="15"/>
       <c r="F547" s="15"/>
@@ -11781,7 +11713,7 @@
       <c r="C628" s="26" t="s">
         <v>495</v>
       </c>
-      <c r="D628" s="58" t="s">
+      <c r="D628" s="54" t="s">
         <v>496</v>
       </c>
       <c r="E628" s="12"/>
@@ -11794,7 +11726,7 @@
       <c r="A629" s="29"/>
       <c r="B629" s="29"/>
       <c r="C629" s="26"/>
-      <c r="D629" s="58" t="s">
+      <c r="D629" s="54" t="s">
         <v>497</v>
       </c>
       <c r="E629" s="12"/>
@@ -11838,7 +11770,7 @@
       <c r="A633" s="29"/>
       <c r="B633" s="29"/>
       <c r="C633" s="26"/>
-      <c r="D633" s="58" t="s">
+      <c r="D633" s="54" t="s">
         <v>501</v>
       </c>
       <c r="E633" s="11"/>
@@ -11915,7 +11847,7 @@
       <c r="A640" s="29"/>
       <c r="B640" s="29"/>
       <c r="C640" s="26"/>
-      <c r="D640" s="58" t="s">
+      <c r="D640" s="54" t="s">
         <v>507</v>
       </c>
       <c r="E640" s="12"/>
